--- a/data/d1/s4_modified.xlsx
+++ b/data/d1/s4_modified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="192" windowWidth="14340" windowHeight="7680"/>
+    <workbookView xWindow="1380" yWindow="192" windowWidth="14340" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MERGED" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="144">
   <si>
     <t>Compounds</t>
   </si>
@@ -496,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -551,17 +551,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -633,11 +622,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -976,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG90"/>
+  <dimension ref="A1:BG99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,6 +1112,39 @@
       </c>
       <c r="AT1" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
@@ -1616,6 +1636,39 @@
       <c r="AT6" s="24">
         <v>15.583</v>
       </c>
+      <c r="AU6" s="17">
+        <v>15.664</v>
+      </c>
+      <c r="AV6" s="17">
+        <v>15.632</v>
+      </c>
+      <c r="AW6" s="17">
+        <v>15.664999999999999</v>
+      </c>
+      <c r="AX6" s="17">
+        <v>15.664</v>
+      </c>
+      <c r="AY6" s="17">
+        <v>15.669</v>
+      </c>
+      <c r="AZ6" s="17">
+        <v>15.657</v>
+      </c>
+      <c r="BA6" s="17">
+        <v>15.667999999999999</v>
+      </c>
+      <c r="BB6" s="17">
+        <v>15.654999999999999</v>
+      </c>
+      <c r="BC6" s="17">
+        <v>15.63</v>
+      </c>
+      <c r="BD6" s="17">
+        <v>15.666</v>
+      </c>
+      <c r="BE6" s="17">
+        <v>15.648999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1753,6 +1806,39 @@
       </c>
       <c r="AT7" s="24">
         <v>16.038</v>
+      </c>
+      <c r="AU7" s="17">
+        <v>16.356000000000002</v>
+      </c>
+      <c r="AV7" s="17">
+        <v>16.297999999999998</v>
+      </c>
+      <c r="AW7" s="17">
+        <v>16.309000000000001</v>
+      </c>
+      <c r="AX7" s="17">
+        <v>16.356000000000002</v>
+      </c>
+      <c r="AY7" s="17">
+        <v>16.317</v>
+      </c>
+      <c r="AZ7" s="17">
+        <v>16.335000000000001</v>
+      </c>
+      <c r="BA7" s="17">
+        <v>16.344000000000001</v>
+      </c>
+      <c r="BB7" s="17">
+        <v>16.302</v>
+      </c>
+      <c r="BC7" s="17">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="BD7" s="17">
+        <v>16.321000000000002</v>
+      </c>
+      <c r="BE7" s="17">
+        <v>16.318999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
@@ -2041,4577 +2127,5341 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5">
-        <v>266</v>
-      </c>
-      <c r="C12" s="1">
-        <v>17.529</v>
-      </c>
-      <c r="D12" s="1">
-        <v>17.573</v>
-      </c>
-      <c r="E12" s="1">
-        <v>17.683</v>
-      </c>
-      <c r="F12" s="1">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="G12" s="1">
-        <v>17.545000000000002</v>
-      </c>
-      <c r="H12" s="1">
-        <v>17.498000000000001</v>
-      </c>
-      <c r="I12" s="1">
-        <v>17.616</v>
-      </c>
-      <c r="J12" s="1">
-        <v>17.533999999999999</v>
-      </c>
-      <c r="K12" s="1">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="L12" s="1">
-        <v>17.564</v>
-      </c>
-      <c r="M12" s="1">
-        <v>17.545999999999999</v>
-      </c>
-      <c r="N12" s="1">
-        <v>17.577000000000002</v>
-      </c>
-      <c r="O12" s="1">
-        <v>17.550999999999998</v>
-      </c>
-      <c r="P12" s="1">
-        <v>17.510000000000002</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>17.544</v>
-      </c>
-      <c r="R12" s="1">
-        <v>17.626000000000001</v>
-      </c>
-      <c r="S12" s="1">
-        <v>17.512</v>
-      </c>
-      <c r="T12" s="1">
-        <v>17.698</v>
-      </c>
-      <c r="U12" s="1">
-        <v>17.518000000000001</v>
-      </c>
-      <c r="V12" s="1">
-        <v>17.489000000000001</v>
-      </c>
-      <c r="W12" s="1">
-        <v>17.539000000000001</v>
-      </c>
-      <c r="X12" s="1">
-        <v>17.498000000000001</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>17.503</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>17.503</v>
+        <v>262</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AU12" s="17">
+        <v>16.597000000000001</v>
+      </c>
+      <c r="AV12" s="17">
+        <v>16.582999999999998</v>
+      </c>
+      <c r="AW12" s="17">
+        <v>16.587</v>
+      </c>
+      <c r="AX12" s="17">
+        <v>16.597000000000001</v>
+      </c>
+      <c r="AY12" s="17">
+        <v>16.588000000000001</v>
+      </c>
+      <c r="AZ12" s="17">
+        <v>16.591000000000001</v>
+      </c>
+      <c r="BA12" s="17">
+        <v>16.594000000000001</v>
+      </c>
+      <c r="BB12" s="17">
+        <v>16.584</v>
+      </c>
+      <c r="BC12" s="17">
+        <v>16.588999999999999</v>
+      </c>
+      <c r="BD12" s="17">
+        <v>16.588999999999999</v>
+      </c>
+      <c r="BE12" s="17">
+        <v>16.588000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>266</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17.529</v>
+      </c>
+      <c r="D13" s="1">
+        <v>17.573</v>
+      </c>
+      <c r="E13" s="1">
+        <v>17.683</v>
+      </c>
+      <c r="F13" s="1">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17.545000000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17.498000000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17.616</v>
+      </c>
+      <c r="J13" s="1">
+        <v>17.533999999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.564</v>
+      </c>
+      <c r="M13" s="1">
+        <v>17.545999999999999</v>
+      </c>
+      <c r="N13" s="1">
+        <v>17.577000000000002</v>
+      </c>
+      <c r="O13" s="1">
+        <v>17.550999999999998</v>
+      </c>
+      <c r="P13" s="1">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>17.544</v>
+      </c>
+      <c r="R13" s="1">
+        <v>17.626000000000001</v>
+      </c>
+      <c r="S13" s="1">
+        <v>17.512</v>
+      </c>
+      <c r="T13" s="1">
+        <v>17.698</v>
+      </c>
+      <c r="U13" s="1">
+        <v>17.518000000000001</v>
+      </c>
+      <c r="V13" s="1">
+        <v>17.489000000000001</v>
+      </c>
+      <c r="W13" s="1">
+        <v>17.539000000000001</v>
+      </c>
+      <c r="X13" s="1">
+        <v>17.498000000000001</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>17.503</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>17.503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="5">
         <v>268</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>18.065999999999999</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>18.091999999999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>18.140999999999998</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>18.135000000000002</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <v>18.16</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H14" s="1">
         <v>18.077999999999999</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="1">
         <v>18.170999999999999</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J14" s="1">
         <v>18.076000000000001</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K14" s="1">
         <v>18.158000000000001</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="1">
         <v>18.134</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M14" s="1">
         <v>18.123999999999999</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N14" s="1">
         <v>18.145</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O14" s="1">
         <v>18.108000000000001</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P14" s="1">
         <v>18.071000000000002</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q14" s="1">
         <v>18.106999999999999</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R14" s="1">
         <v>18.116</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S14" s="1">
         <v>18.137</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T14" s="1">
         <v>18.201000000000001</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U14" s="1">
         <v>18.123999999999999</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V14" s="1">
         <v>18.044</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W14" s="1">
         <v>18.047000000000001</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1">
         <v>18.059000000000001</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA14" s="6">
         <v>16.427</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB14" s="6">
         <v>16.427</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC14" s="6">
         <v>16.422000000000001</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD14" s="6">
         <v>16.422999999999998</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE14" s="6">
         <v>16.428000000000001</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF14" s="6">
         <v>16.425000000000001</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG14" s="6">
         <v>16.428999999999998</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH14" s="6">
         <v>16.422999999999998</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI14" s="6">
         <v>16.420000000000002</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ14" s="6">
         <v>16.420999999999999</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AK14" s="6">
         <v>16.420999999999999</v>
       </c>
-      <c r="AL13" s="6">
+      <c r="AL14" s="6">
         <v>16.425000000000001</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AM14" s="6">
         <v>16.423999999999999</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AN14" s="6">
         <v>16.422000000000001</v>
       </c>
-      <c r="AO13" s="6">
+      <c r="AO14" s="6">
         <v>16.420999999999999</v>
       </c>
-      <c r="AP13" s="6">
+      <c r="AP14" s="6">
         <v>16.420999999999999</v>
       </c>
-      <c r="AQ13" s="6">
+      <c r="AQ14" s="6">
         <v>16.420999999999999</v>
       </c>
-      <c r="AR13" s="6">
+      <c r="AR14" s="6">
         <v>16.427</v>
       </c>
-      <c r="AS13" s="24">
+      <c r="AS14" s="24">
         <v>16.416</v>
       </c>
-      <c r="AW13" s="1"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="18">
-        <v>268</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="AW14" s="1"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="18">
+        <v>268</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B16" s="18">
         <v>270</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA16" s="6">
         <v>19.009</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB16" s="6">
         <v>19.010000000000002</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC16" s="6">
         <v>19.015000000000001</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AD16" s="6">
         <v>18.978999999999999</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AE16" s="6">
         <v>18.986999999999998</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AF16" s="6">
         <v>18.981999999999999</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AG16" s="6">
         <v>18.998999999999999</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AH16" s="6">
         <v>19.007999999999999</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI16" s="6">
         <v>18.984999999999999</v>
       </c>
-      <c r="AJ15" s="6">
+      <c r="AJ16" s="6">
         <v>18.983000000000001</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AK16" s="6">
         <v>18.988</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AL16" s="6">
         <v>18.978999999999999</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AM16" s="6">
         <v>19</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AN16" s="6">
         <v>18.989000000000001</v>
       </c>
-      <c r="AO15" s="6">
+      <c r="AO16" s="6">
         <v>18.969000000000001</v>
       </c>
-      <c r="AP15" s="6">
+      <c r="AP16" s="6">
         <v>18.975000000000001</v>
       </c>
-      <c r="AQ15" s="6">
+      <c r="AQ16" s="6">
         <v>18.972000000000001</v>
       </c>
-      <c r="AR15" s="6">
+      <c r="AR16" s="6">
         <v>19.007999999999999</v>
       </c>
-      <c r="AS15" s="6">
+      <c r="AS16" s="6">
         <v>18.919</v>
       </c>
-      <c r="AT15" s="24">
+      <c r="AT16" s="24">
         <v>18.972000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5">
+        <v>282</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="17">
+        <v>17.356000000000002</v>
+      </c>
+      <c r="AV17" s="17">
+        <v>17.376000000000001</v>
+      </c>
+      <c r="AW17" s="17">
+        <v>17.353999999999999</v>
+      </c>
+      <c r="AX17" s="17">
+        <v>17.356000000000002</v>
+      </c>
+      <c r="AY17" s="17">
+        <v>17.355</v>
+      </c>
+      <c r="AZ17" s="17">
+        <v>17.353999999999999</v>
+      </c>
+      <c r="BA17" s="17">
+        <v>17.355</v>
+      </c>
+      <c r="BB17" s="17">
+        <v>17.352</v>
+      </c>
+      <c r="BC17" s="17">
+        <v>17.353999999999999</v>
+      </c>
+      <c r="BD17" s="17">
+        <v>17.355</v>
+      </c>
+      <c r="BE17" s="17">
+        <v>17.355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B18" s="18">
         <v>282</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA18" s="6">
         <v>17.111000000000001</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AB18" s="6">
         <v>17.111000000000001</v>
       </c>
-      <c r="AC16" s="6">
+      <c r="AC18" s="6">
         <v>17.117000000000001</v>
       </c>
-      <c r="AD16" s="6">
+      <c r="AD18" s="6">
         <v>17.103999999999999</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AE18" s="6">
         <v>17.111999999999998</v>
       </c>
-      <c r="AF16" s="6">
+      <c r="AF18" s="6">
         <v>17.085999999999999</v>
       </c>
-      <c r="AG16" s="6">
+      <c r="AG18" s="6">
         <v>16.962</v>
       </c>
-      <c r="AH16" s="6">
+      <c r="AH18" s="6">
         <v>17.120999999999999</v>
       </c>
-      <c r="AI16" s="6">
+      <c r="AI18" s="6">
         <v>17.114999999999998</v>
       </c>
-      <c r="AJ16" s="6">
+      <c r="AJ18" s="6">
         <v>16.959</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AK18" s="6">
         <v>17.05</v>
       </c>
-      <c r="AL16" s="6">
+      <c r="AL18" s="6">
         <v>17.111999999999998</v>
       </c>
-      <c r="AM16" s="6">
+      <c r="AM18" s="6">
         <v>17.111999999999998</v>
       </c>
-      <c r="AN16" s="6">
+      <c r="AN18" s="6">
         <v>17.116</v>
       </c>
-      <c r="AO16" s="6">
+      <c r="AO18" s="6">
         <v>16.949000000000002</v>
       </c>
-      <c r="AP16" s="6">
+      <c r="AP18" s="6">
         <v>17.07</v>
       </c>
-      <c r="AQ16" s="6">
+      <c r="AQ18" s="6">
         <v>17.109000000000002</v>
       </c>
-      <c r="AR16" s="6">
+      <c r="AR18" s="6">
         <v>17.106999999999999</v>
       </c>
-      <c r="AS16" s="6">
+      <c r="AS18" s="6">
         <v>17.114999999999998</v>
       </c>
-      <c r="AT16" s="24">
+      <c r="AT18" s="24">
         <v>17.102</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B19" s="18">
         <v>282</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA19" s="6">
         <v>17.241</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB19" s="6">
         <v>17.242000000000001</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC19" s="6">
         <v>17.294</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AD19" s="6">
         <v>17.274000000000001</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AE19" s="6">
         <v>17.178000000000001</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AF19" s="6">
         <v>17.187999999999999</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AG19" s="6">
         <v>17.132000000000001</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AH19" s="6">
         <v>17.283999999999999</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AI19" s="6">
         <v>17.18</v>
       </c>
-      <c r="AJ17" s="6">
+      <c r="AJ19" s="6">
         <v>17.116</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AK19" s="6">
         <v>17.123000000000001</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AL19" s="6">
         <v>17.213000000000001</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AM19" s="6">
         <v>17.292999999999999</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AN19" s="6">
         <v>17.262</v>
       </c>
-      <c r="AO17" s="6">
+      <c r="AO19" s="6">
         <v>17.100999999999999</v>
       </c>
-      <c r="AP17" s="6">
+      <c r="AP19" s="6">
         <v>17.18</v>
       </c>
-      <c r="AQ17" s="6">
+      <c r="AQ19" s="6">
         <v>17.193000000000001</v>
       </c>
-      <c r="AR17" s="6">
+      <c r="AR19" s="6">
         <v>17.306000000000001</v>
       </c>
-      <c r="AS17" s="6">
+      <c r="AS19" s="6">
         <v>17.225000000000001</v>
       </c>
-      <c r="AT17" s="24">
+      <c r="AT19" s="24">
         <v>17.198</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5">
+        <v>284</v>
+      </c>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="17">
+        <v>17.498000000000001</v>
+      </c>
+      <c r="AV20" s="17">
+        <v>17.495999999999999</v>
+      </c>
+      <c r="AW20" s="17">
+        <v>17.504999999999999</v>
+      </c>
+      <c r="AX20" s="17">
+        <v>17.498000000000001</v>
+      </c>
+      <c r="AY20" s="17">
+        <v>17.501000000000001</v>
+      </c>
+      <c r="AZ20" s="17">
+        <v>17.498999999999999</v>
+      </c>
+      <c r="BA20" s="17">
+        <v>17.498000000000001</v>
+      </c>
+      <c r="BB20" s="17">
+        <v>17.495999999999999</v>
+      </c>
+      <c r="BC20" s="17">
+        <v>17.497</v>
+      </c>
+      <c r="BD20" s="17">
+        <v>17.498999999999999</v>
+      </c>
+      <c r="BE20" s="17">
+        <v>17.497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B21" s="18">
         <v>284</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA21" s="6">
         <v>17.298999999999999</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB21" s="6">
         <v>17.297999999999998</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC21" s="6">
         <v>17.344999999999999</v>
       </c>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6">
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6">
         <v>17.283999999999999</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AF21" s="6">
         <v>17.27</v>
       </c>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6">
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6">
         <v>17.280999999999999</v>
       </c>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6">
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6">
         <v>17.303000000000001</v>
       </c>
-      <c r="AO18" s="6">
+      <c r="AO21" s="6">
         <v>17.260999999999999</v>
       </c>
-      <c r="AP18" s="6">
+      <c r="AP21" s="6">
         <v>17.268999999999998</v>
       </c>
-      <c r="AQ18" s="6">
+      <c r="AQ21" s="6">
         <v>17.274999999999999</v>
       </c>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6">
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6">
         <v>17.323</v>
       </c>
-      <c r="AT18" s="24">
+      <c r="AT21" s="24">
         <v>17.265000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="18">
-        <v>296</v>
-      </c>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6">
-        <v>17.722999999999999</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>17.731000000000002</v>
-      </c>
-      <c r="AD19" s="6">
-        <v>17.713000000000001</v>
-      </c>
-      <c r="AE19" s="6">
-        <v>17.72</v>
-      </c>
-      <c r="AF19" s="6">
-        <v>17.716000000000001</v>
-      </c>
-      <c r="AG19" s="6">
-        <v>17.706</v>
-      </c>
-      <c r="AH19" s="6">
-        <v>17.751999999999999</v>
-      </c>
-      <c r="AI19" s="6">
-        <v>17.716999999999999</v>
-      </c>
-      <c r="AJ19" s="6">
-        <v>17.702000000000002</v>
-      </c>
-      <c r="AK19" s="6">
-        <v>17.706</v>
-      </c>
-      <c r="AL19" s="6">
-        <v>17.713000000000001</v>
-      </c>
-      <c r="AM19" s="6">
-        <v>17.727</v>
-      </c>
-      <c r="AN19" s="6">
-        <v>17.727</v>
-      </c>
-      <c r="AO19" s="6">
-        <v>17.704000000000001</v>
-      </c>
-      <c r="AP19" s="6">
-        <v>17.712</v>
-      </c>
-      <c r="AQ19" s="6">
-        <v>17.709</v>
-      </c>
-      <c r="AR19" s="6">
-        <v>17.724</v>
-      </c>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="24">
-        <v>17.704999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5">
-        <v>296</v>
-      </c>
-      <c r="C20" s="1">
-        <v>18.366</v>
-      </c>
-      <c r="D20" s="1">
-        <v>18.376999999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>18.390999999999998</v>
-      </c>
-      <c r="F20" s="1">
-        <v>18.379000000000001</v>
-      </c>
-      <c r="G20" s="1">
-        <v>18.379000000000001</v>
-      </c>
-      <c r="H20" s="1">
-        <v>18.363</v>
-      </c>
-      <c r="I20" s="1">
-        <v>18.387</v>
-      </c>
-      <c r="J20" s="1">
-        <v>18.367000000000001</v>
-      </c>
-      <c r="K20" s="1">
-        <v>18.382999999999999</v>
-      </c>
-      <c r="L20" s="1">
-        <v>18.376000000000001</v>
-      </c>
-      <c r="M20" s="1">
-        <v>18.373999999999999</v>
-      </c>
-      <c r="N20" s="1">
-        <v>18.385999999999999</v>
-      </c>
-      <c r="O20" s="1">
-        <v>18.373999999999999</v>
-      </c>
-      <c r="P20" s="1">
-        <v>18.367000000000001</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>18.373999999999999</v>
-      </c>
-      <c r="R20" s="1">
-        <v>18.38</v>
-      </c>
-      <c r="S20" s="1">
-        <v>18.376999999999999</v>
-      </c>
-      <c r="T20" s="1">
-        <v>18.411000000000001</v>
-      </c>
-      <c r="U20" s="1">
-        <v>18.376000000000001</v>
-      </c>
-      <c r="V20" s="1">
-        <v>18.369</v>
-      </c>
-      <c r="W20" s="1">
-        <v>18.372</v>
-      </c>
-      <c r="X20" s="1">
-        <v>18.37</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>18.370999999999999</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>18.367000000000001</v>
-      </c>
-      <c r="AA20" s="6">
-        <v>18.837</v>
-      </c>
-      <c r="AB20" s="6">
-        <v>18.835000000000001</v>
-      </c>
-      <c r="AC20" s="6">
-        <v>18.861000000000001</v>
-      </c>
-      <c r="AD20" s="6">
-        <v>18.803999999999998</v>
-      </c>
-      <c r="AE20" s="6">
-        <v>18.823</v>
-      </c>
-      <c r="AF20" s="6">
-        <v>18.798999999999999</v>
-      </c>
-      <c r="AG20" s="6">
-        <v>18.763999999999999</v>
-      </c>
-      <c r="AH20" s="6">
-        <v>18.898</v>
-      </c>
-      <c r="AI20" s="6">
-        <v>18.82</v>
-      </c>
-      <c r="AJ20" s="6">
-        <v>18.78</v>
-      </c>
-      <c r="AK20" s="6">
-        <v>18.829999999999998</v>
-      </c>
-      <c r="AL20" s="6">
-        <v>18.803999999999998</v>
-      </c>
-      <c r="AM20" s="6">
-        <v>18.841000000000001</v>
-      </c>
-      <c r="AN20" s="6">
-        <v>18.812999999999999</v>
-      </c>
-      <c r="AO20" s="6">
-        <v>18.751000000000001</v>
-      </c>
-      <c r="AP20" s="6">
-        <v>18.797000000000001</v>
-      </c>
-      <c r="AQ20" s="6">
-        <v>18.788</v>
-      </c>
-      <c r="AR20" s="6">
-        <v>18.841000000000001</v>
-      </c>
-      <c r="AS20" s="6">
-        <v>18.888999999999999</v>
-      </c>
-      <c r="AT20" s="24">
-        <v>18.798999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5">
-        <v>310</v>
-      </c>
-      <c r="C21" s="1">
-        <v>19.126000000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>19.129000000000001</v>
-      </c>
-      <c r="E21" s="1">
-        <v>19.152000000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>19.123999999999999</v>
-      </c>
-      <c r="G21" s="1">
-        <v>19.141999999999999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>19.117000000000001</v>
-      </c>
-      <c r="I21" s="1">
-        <v>19.14</v>
-      </c>
-      <c r="J21" s="1">
-        <v>19.128</v>
-      </c>
-      <c r="K21" s="1">
-        <v>19.13</v>
-      </c>
-      <c r="L21" s="1">
-        <v>19.13</v>
-      </c>
-      <c r="M21" s="1">
-        <v>19.12</v>
-      </c>
-      <c r="N21" s="1">
-        <v>19.135000000000002</v>
-      </c>
-      <c r="O21" s="1">
-        <v>19.123999999999999</v>
-      </c>
-      <c r="P21" s="1">
-        <v>19.122</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>19.129000000000001</v>
-      </c>
-      <c r="R21" s="1">
-        <v>19.145</v>
-      </c>
-      <c r="S21" s="1">
-        <v>19.125</v>
-      </c>
-      <c r="T21" s="1">
-        <v>19.152000000000001</v>
-      </c>
-      <c r="U21" s="1">
-        <v>19.123999999999999</v>
-      </c>
-      <c r="V21" s="1">
-        <v>19.117000000000001</v>
-      </c>
-      <c r="W21" s="1">
-        <v>19.131</v>
-      </c>
-      <c r="X21" s="1">
-        <v>19.12</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>19.126000000000001</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>19.123000000000001</v>
-      </c>
-      <c r="AA21" s="6">
-        <v>19.27</v>
-      </c>
-      <c r="AB21" s="6">
-        <v>19.268999999999998</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>19.273</v>
-      </c>
-      <c r="AD21" s="6">
-        <v>19.265000000000001</v>
-      </c>
-      <c r="AE21" s="6">
-        <v>19.265999999999998</v>
-      </c>
-      <c r="AF21" s="6">
-        <v>19.268999999999998</v>
-      </c>
-      <c r="AG21" s="6">
-        <v>19.265999999999998</v>
-      </c>
-      <c r="AH21" s="6">
-        <v>19.282</v>
-      </c>
-      <c r="AI21" s="6">
-        <v>19.266999999999999</v>
-      </c>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6">
-        <v>19.263999999999999</v>
-      </c>
-      <c r="AL21" s="6">
-        <v>19.265000000000001</v>
-      </c>
-      <c r="AM21" s="6">
-        <v>19.27</v>
-      </c>
-      <c r="AN21" s="6">
-        <v>19.265999999999998</v>
-      </c>
-      <c r="AO21" s="6">
-        <v>19.260999999999999</v>
-      </c>
-      <c r="AP21" s="6">
-        <v>19.263999999999999</v>
-      </c>
-      <c r="AQ21" s="6">
-        <v>19.263000000000002</v>
-      </c>
-      <c r="AR21" s="6">
-        <v>19.266999999999999</v>
-      </c>
-      <c r="AS21" s="6">
-        <v>19.28</v>
-      </c>
-      <c r="AT21" s="24">
-        <v>19.259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5">
-        <v>310</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
-        <v>19.207000000000001</v>
-      </c>
-      <c r="E22" s="1">
-        <v>19.202000000000002</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1">
-        <v>19.221</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
-        <v>19.199000000000002</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1">
-        <v>19.207000000000001</v>
-      </c>
-      <c r="O22" s="1">
-        <v>19.199000000000002</v>
-      </c>
-      <c r="P22" s="1">
-        <v>19.195</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1">
-        <v>19.199000000000002</v>
-      </c>
-      <c r="T22" s="1">
-        <v>19.22</v>
-      </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1">
-        <v>19.178999999999998</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>19.2</v>
-      </c>
-      <c r="AA22" s="6">
-        <v>19.344000000000001</v>
-      </c>
-      <c r="AB22" s="6">
-        <v>19.343</v>
-      </c>
-      <c r="AC22" s="6">
-        <v>19.347999999999999</v>
-      </c>
-      <c r="AD22" s="6">
-        <v>19.335999999999999</v>
-      </c>
-      <c r="AE22" s="6">
-        <v>19.338999999999999</v>
-      </c>
-      <c r="AF22" s="6">
-        <v>19.341000000000001</v>
-      </c>
-      <c r="AG22" s="6">
-        <v>19.334</v>
-      </c>
-      <c r="AH22" s="6">
-        <v>19.369</v>
-      </c>
-      <c r="AI22" s="6">
-        <v>19.338999999999999</v>
-      </c>
-      <c r="AJ22" s="6">
-        <v>19.332000000000001</v>
-      </c>
-      <c r="AK22" s="6">
-        <v>19.335999999999999</v>
-      </c>
-      <c r="AL22" s="6">
-        <v>19.337</v>
-      </c>
-      <c r="AM22" s="6">
-        <v>19.344999999999999</v>
-      </c>
-      <c r="AN22" s="6">
-        <v>19.343</v>
-      </c>
-      <c r="AO22" s="6">
-        <v>19.331</v>
-      </c>
-      <c r="AP22" s="6">
-        <v>19.335000000000001</v>
-      </c>
-      <c r="AQ22" s="6">
-        <v>19.335000000000001</v>
-      </c>
-      <c r="AR22" s="6">
-        <v>19.341999999999999</v>
-      </c>
-      <c r="AS22" s="6">
-        <v>19.366</v>
-      </c>
-      <c r="AT22" s="24">
-        <v>19.329999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="18">
-        <v>312</v>
+        <v>288</v>
+      </c>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="17">
+        <v>19.295000000000002</v>
+      </c>
+      <c r="AV22" s="17">
+        <v>19.251000000000001</v>
+      </c>
+      <c r="AW22" s="17">
+        <v>19.251999999999999</v>
+      </c>
+      <c r="AX22" s="17">
+        <v>19.295000000000002</v>
+      </c>
+      <c r="AY22" s="17">
+        <v>19.254000000000001</v>
+      </c>
+      <c r="AZ22" s="17">
+        <v>19.241</v>
+      </c>
+      <c r="BA22" s="17">
+        <v>19.276</v>
+      </c>
+      <c r="BB22" s="17">
+        <v>19.242000000000001</v>
+      </c>
+      <c r="BC22" s="17">
+        <v>19.251000000000001</v>
+      </c>
+      <c r="BD22" s="17">
+        <v>19.241</v>
+      </c>
+      <c r="BE22" s="17">
+        <v>19.294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5">
+        <v>288</v>
       </c>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="6">
-        <v>19.687000000000001</v>
-      </c>
+      <c r="AF23" s="6"/>
       <c r="AG23" s="6"/>
-      <c r="AH23" s="6">
-        <v>19.689</v>
-      </c>
-      <c r="AI23" s="6">
-        <v>19.669</v>
-      </c>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="6">
-        <v>19.673999999999999</v>
-      </c>
-      <c r="AN23" s="6">
-        <v>19.677</v>
-      </c>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
       <c r="AP23" s="6"/>
-      <c r="AQ23" s="6">
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="24"/>
+      <c r="AU23" s="17">
+        <v>19.585000000000001</v>
+      </c>
+      <c r="AV23" s="17">
+        <v>19.5</v>
+      </c>
+      <c r="AW23" s="17">
+        <v>19.516999999999999</v>
+      </c>
+      <c r="AX23" s="17">
+        <v>19.585000000000001</v>
+      </c>
+      <c r="AY23" s="17">
+        <v>19.521000000000001</v>
+      </c>
+      <c r="AZ23" s="17">
+        <v>19.5</v>
+      </c>
+      <c r="BA23" s="17">
+        <v>19.553999999999998</v>
+      </c>
+      <c r="BB23" s="17">
+        <v>19.504999999999999</v>
+      </c>
+      <c r="BC23" s="17">
+        <v>19.524000000000001</v>
+      </c>
+      <c r="BD23" s="17">
+        <v>19.506</v>
+      </c>
+      <c r="BE23" s="17">
+        <v>19.582999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="5">
+        <v>290</v>
+      </c>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="24"/>
+      <c r="AU24" s="17">
+        <v>18.28</v>
+      </c>
+      <c r="AV24" s="17">
+        <v>18.265000000000001</v>
+      </c>
+      <c r="AW24" s="17">
+        <v>18.271999999999998</v>
+      </c>
+      <c r="AX24" s="17">
+        <v>18.28</v>
+      </c>
+      <c r="AY24" s="17">
+        <v>18.271999999999998</v>
+      </c>
+      <c r="AZ24" s="17">
+        <v>18.268999999999998</v>
+      </c>
+      <c r="BA24" s="17">
+        <v>18.277999999999999</v>
+      </c>
+      <c r="BB24" s="17">
+        <v>18.268000000000001</v>
+      </c>
+      <c r="BC24" s="17">
+        <v>18.268999999999998</v>
+      </c>
+      <c r="BD24" s="17">
+        <v>18.268000000000001</v>
+      </c>
+      <c r="BE24" s="17">
+        <v>18.282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="5">
+        <v>292</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="17">
+        <v>18.95</v>
+      </c>
+      <c r="AV25" s="17">
+        <v>18.893999999999998</v>
+      </c>
+      <c r="AW25" s="17">
+        <v>18.928000000000001</v>
+      </c>
+      <c r="AX25" s="17">
+        <v>18.95</v>
+      </c>
+      <c r="AY25" s="17">
+        <v>18.925999999999998</v>
+      </c>
+      <c r="AZ25" s="17">
+        <v>18.928999999999998</v>
+      </c>
+      <c r="BA25" s="17">
+        <v>18.933</v>
+      </c>
+      <c r="BB25" s="17">
+        <v>18.920999999999999</v>
+      </c>
+      <c r="BC25" s="17">
+        <v>18.919</v>
+      </c>
+      <c r="BD25" s="17">
+        <v>18.919</v>
+      </c>
+      <c r="BE25" s="17">
+        <v>18.943999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5">
+        <v>294</v>
+      </c>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="24"/>
+      <c r="AU26" s="17">
+        <v>18.140999999999998</v>
+      </c>
+      <c r="AV26" s="17">
+        <v>18.132000000000001</v>
+      </c>
+      <c r="AW26" s="17">
+        <v>18.14</v>
+      </c>
+      <c r="AX26" s="17">
+        <v>18.140999999999998</v>
+      </c>
+      <c r="AY26" s="17">
+        <v>18.137</v>
+      </c>
+      <c r="AZ26" s="17">
+        <v>18.135999999999999</v>
+      </c>
+      <c r="BA26" s="17">
+        <v>18.14</v>
+      </c>
+      <c r="BB26" s="17">
+        <v>18.134</v>
+      </c>
+      <c r="BC26" s="17">
+        <v>18.134</v>
+      </c>
+      <c r="BD26" s="17">
+        <v>18.134</v>
+      </c>
+      <c r="BE26" s="17">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5">
+        <v>294</v>
+      </c>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="24"/>
+      <c r="AU27" s="17">
+        <v>18.196000000000002</v>
+      </c>
+      <c r="AV27" s="17"/>
+      <c r="AW27" s="17">
+        <v>18.190999999999999</v>
+      </c>
+      <c r="AX27" s="17">
+        <v>18.196000000000002</v>
+      </c>
+      <c r="AY27" s="17">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="AZ27" s="17">
+        <v>18.187999999999999</v>
+      </c>
+      <c r="BA27" s="17">
+        <v>18.196999999999999</v>
+      </c>
+      <c r="BB27" s="17">
+        <v>18.186</v>
+      </c>
+      <c r="BC27" s="17">
+        <v>18.187999999999999</v>
+      </c>
+      <c r="BD27" s="17">
+        <v>18.187000000000001</v>
+      </c>
+      <c r="BE27" s="17">
+        <v>18.196999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="5">
+        <v>296</v>
+      </c>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="24"/>
+      <c r="AU28" s="17">
+        <v>17.655999999999999</v>
+      </c>
+      <c r="AV28" s="17">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="AW28" s="17">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="AX28" s="17">
+        <v>17.655999999999999</v>
+      </c>
+      <c r="AY28" s="17">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="AZ28" s="17">
+        <v>17.654</v>
+      </c>
+      <c r="BA28" s="17">
+        <v>17.655999999999999</v>
+      </c>
+      <c r="BB28" s="17">
+        <v>17.652999999999999</v>
+      </c>
+      <c r="BC28" s="17">
+        <v>17.652999999999999</v>
+      </c>
+      <c r="BD28" s="17">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="BE28" s="17">
+        <v>17.655000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="18">
+        <v>296</v>
+      </c>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6">
+        <v>17.722999999999999</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>17.731000000000002</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>17.713000000000001</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>17.72</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>17.716000000000001</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>17.706</v>
+      </c>
+      <c r="AH29" s="6">
+        <v>17.751999999999999</v>
+      </c>
+      <c r="AI29" s="6">
+        <v>17.716999999999999</v>
+      </c>
+      <c r="AJ29" s="6">
+        <v>17.702000000000002</v>
+      </c>
+      <c r="AK29" s="6">
+        <v>17.706</v>
+      </c>
+      <c r="AL29" s="6">
+        <v>17.713000000000001</v>
+      </c>
+      <c r="AM29" s="6">
+        <v>17.727</v>
+      </c>
+      <c r="AN29" s="6">
+        <v>17.727</v>
+      </c>
+      <c r="AO29" s="6">
+        <v>17.704000000000001</v>
+      </c>
+      <c r="AP29" s="6">
+        <v>17.712</v>
+      </c>
+      <c r="AQ29" s="6">
+        <v>17.709</v>
+      </c>
+      <c r="AR29" s="6">
+        <v>17.724</v>
+      </c>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="24">
+        <v>17.704999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5">
+        <v>296</v>
+      </c>
+      <c r="C30" s="1">
+        <v>18.366</v>
+      </c>
+      <c r="D30" s="1">
+        <v>18.376999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>18.390999999999998</v>
+      </c>
+      <c r="F30" s="1">
+        <v>18.379000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>18.379000000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>18.363</v>
+      </c>
+      <c r="I30" s="1">
+        <v>18.387</v>
+      </c>
+      <c r="J30" s="1">
+        <v>18.367000000000001</v>
+      </c>
+      <c r="K30" s="1">
+        <v>18.382999999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>18.376000000000001</v>
+      </c>
+      <c r="M30" s="1">
+        <v>18.373999999999999</v>
+      </c>
+      <c r="N30" s="1">
+        <v>18.385999999999999</v>
+      </c>
+      <c r="O30" s="1">
+        <v>18.373999999999999</v>
+      </c>
+      <c r="P30" s="1">
+        <v>18.367000000000001</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>18.373999999999999</v>
+      </c>
+      <c r="R30" s="1">
+        <v>18.38</v>
+      </c>
+      <c r="S30" s="1">
+        <v>18.376999999999999</v>
+      </c>
+      <c r="T30" s="1">
+        <v>18.411000000000001</v>
+      </c>
+      <c r="U30" s="1">
+        <v>18.376000000000001</v>
+      </c>
+      <c r="V30" s="1">
+        <v>18.369</v>
+      </c>
+      <c r="W30" s="1">
+        <v>18.372</v>
+      </c>
+      <c r="X30" s="1">
+        <v>18.37</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>18.370999999999999</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>18.367000000000001</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>18.837</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>18.835000000000001</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>18.861000000000001</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>18.803999999999998</v>
+      </c>
+      <c r="AE30" s="6">
+        <v>18.823</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>18.798999999999999</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>18.763999999999999</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>18.898</v>
+      </c>
+      <c r="AI30" s="6">
+        <v>18.82</v>
+      </c>
+      <c r="AJ30" s="6">
+        <v>18.78</v>
+      </c>
+      <c r="AK30" s="6">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="AL30" s="6">
+        <v>18.803999999999998</v>
+      </c>
+      <c r="AM30" s="6">
+        <v>18.841000000000001</v>
+      </c>
+      <c r="AN30" s="6">
+        <v>18.812999999999999</v>
+      </c>
+      <c r="AO30" s="6">
+        <v>18.751000000000001</v>
+      </c>
+      <c r="AP30" s="6">
+        <v>18.797000000000001</v>
+      </c>
+      <c r="AQ30" s="6">
+        <v>18.788</v>
+      </c>
+      <c r="AR30" s="6">
+        <v>18.841000000000001</v>
+      </c>
+      <c r="AS30" s="6">
+        <v>18.888999999999999</v>
+      </c>
+      <c r="AT30" s="24">
+        <v>18.798999999999999</v>
+      </c>
+      <c r="AU30" s="17">
+        <v>18.402000000000001</v>
+      </c>
+      <c r="AV30" s="17">
+        <v>18.373000000000001</v>
+      </c>
+      <c r="AW30" s="17">
+        <v>18.396000000000001</v>
+      </c>
+      <c r="AX30" s="17">
+        <v>18.402000000000001</v>
+      </c>
+      <c r="AY30" s="17">
+        <v>18.393000000000001</v>
+      </c>
+      <c r="AZ30" s="17">
+        <v>18.395</v>
+      </c>
+      <c r="BA30" s="17">
+        <v>18.388000000000002</v>
+      </c>
+      <c r="BB30" s="17">
+        <v>18.385000000000002</v>
+      </c>
+      <c r="BC30" s="17">
+        <v>18.379000000000001</v>
+      </c>
+      <c r="BD30" s="17">
+        <v>18.385000000000002</v>
+      </c>
+      <c r="BE30" s="17">
+        <v>18.398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5">
+        <v>310</v>
+      </c>
+      <c r="C31" s="1">
+        <v>19.126000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>19.129000000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>19.152000000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>19.123999999999999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>19.141999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>19.117000000000001</v>
+      </c>
+      <c r="I31" s="1">
+        <v>19.14</v>
+      </c>
+      <c r="J31" s="1">
+        <v>19.128</v>
+      </c>
+      <c r="K31" s="1">
+        <v>19.13</v>
+      </c>
+      <c r="L31" s="1">
+        <v>19.13</v>
+      </c>
+      <c r="M31" s="1">
+        <v>19.12</v>
+      </c>
+      <c r="N31" s="1">
+        <v>19.135000000000002</v>
+      </c>
+      <c r="O31" s="1">
+        <v>19.123999999999999</v>
+      </c>
+      <c r="P31" s="1">
+        <v>19.122</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>19.129000000000001</v>
+      </c>
+      <c r="R31" s="1">
+        <v>19.145</v>
+      </c>
+      <c r="S31" s="1">
+        <v>19.125</v>
+      </c>
+      <c r="T31" s="1">
+        <v>19.152000000000001</v>
+      </c>
+      <c r="U31" s="1">
+        <v>19.123999999999999</v>
+      </c>
+      <c r="V31" s="1">
+        <v>19.117000000000001</v>
+      </c>
+      <c r="W31" s="1">
+        <v>19.131</v>
+      </c>
+      <c r="X31" s="1">
+        <v>19.12</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>19.126000000000001</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>19.123000000000001</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>19.27</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>19.268999999999998</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>19.273</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>19.265000000000001</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>19.265999999999998</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>19.268999999999998</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>19.265999999999998</v>
+      </c>
+      <c r="AH31" s="6">
+        <v>19.282</v>
+      </c>
+      <c r="AI31" s="6">
+        <v>19.266999999999999</v>
+      </c>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6">
+        <v>19.263999999999999</v>
+      </c>
+      <c r="AL31" s="6">
+        <v>19.265000000000001</v>
+      </c>
+      <c r="AM31" s="6">
+        <v>19.27</v>
+      </c>
+      <c r="AN31" s="6">
+        <v>19.265999999999998</v>
+      </c>
+      <c r="AO31" s="6">
+        <v>19.260999999999999</v>
+      </c>
+      <c r="AP31" s="6">
+        <v>19.263999999999999</v>
+      </c>
+      <c r="AQ31" s="6">
+        <v>19.263000000000002</v>
+      </c>
+      <c r="AR31" s="6">
+        <v>19.266999999999999</v>
+      </c>
+      <c r="AS31" s="6">
+        <v>19.28</v>
+      </c>
+      <c r="AT31" s="24">
+        <v>19.259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5">
+        <v>310</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1">
+        <v>19.207000000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>19.202000000000002</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <v>19.221</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>19.199000000000002</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1">
+        <v>19.207000000000001</v>
+      </c>
+      <c r="O32" s="1">
+        <v>19.199000000000002</v>
+      </c>
+      <c r="P32" s="1">
+        <v>19.195</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1">
+        <v>19.199000000000002</v>
+      </c>
+      <c r="T32" s="1">
+        <v>19.22</v>
+      </c>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
+        <v>19.178999999999998</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>19.344000000000001</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>19.343</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>19.347999999999999</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>19.335999999999999</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>19.338999999999999</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>19.341000000000001</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>19.334</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>19.369</v>
+      </c>
+      <c r="AI32" s="6">
+        <v>19.338999999999999</v>
+      </c>
+      <c r="AJ32" s="6">
+        <v>19.332000000000001</v>
+      </c>
+      <c r="AK32" s="6">
+        <v>19.335999999999999</v>
+      </c>
+      <c r="AL32" s="6">
+        <v>19.337</v>
+      </c>
+      <c r="AM32" s="6">
+        <v>19.344999999999999</v>
+      </c>
+      <c r="AN32" s="6">
+        <v>19.343</v>
+      </c>
+      <c r="AO32" s="6">
+        <v>19.331</v>
+      </c>
+      <c r="AP32" s="6">
+        <v>19.335000000000001</v>
+      </c>
+      <c r="AQ32" s="6">
+        <v>19.335000000000001</v>
+      </c>
+      <c r="AR32" s="6">
+        <v>19.341999999999999</v>
+      </c>
+      <c r="AS32" s="6">
+        <v>19.366</v>
+      </c>
+      <c r="AT32" s="24">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5">
+        <v>312</v>
+      </c>
+      <c r="C33" s="17">
+        <v>19.143000000000001</v>
+      </c>
+      <c r="D33" s="17">
+        <v>19.052</v>
+      </c>
+      <c r="E33" s="17">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F33" s="17">
+        <v>19.143000000000001</v>
+      </c>
+      <c r="G33" s="17">
+        <v>19.09</v>
+      </c>
+      <c r="H33" s="17">
+        <v>19.074999999999999</v>
+      </c>
+      <c r="I33" s="17">
+        <v>19.111000000000001</v>
+      </c>
+      <c r="J33" s="17">
+        <v>19.077000000000002</v>
+      </c>
+      <c r="K33" s="17">
+        <v>19.073</v>
+      </c>
+      <c r="L33" s="17">
+        <v>19.074000000000002</v>
+      </c>
+      <c r="M33" s="17">
+        <v>19.138999999999999</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="24"/>
+      <c r="AU33" s="17">
+        <v>19.143000000000001</v>
+      </c>
+      <c r="AV33" s="17">
+        <v>19.052</v>
+      </c>
+      <c r="AW33" s="17">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AX33" s="17">
+        <v>19.143000000000001</v>
+      </c>
+      <c r="AY33" s="17">
+        <v>19.09</v>
+      </c>
+      <c r="AZ33" s="17">
+        <v>19.074999999999999</v>
+      </c>
+      <c r="BA33" s="17">
+        <v>19.111000000000001</v>
+      </c>
+      <c r="BB33" s="17">
+        <v>19.077000000000002</v>
+      </c>
+      <c r="BC33" s="17">
+        <v>19.073</v>
+      </c>
+      <c r="BD33" s="17">
+        <v>19.074000000000002</v>
+      </c>
+      <c r="BE33" s="17">
+        <v>19.138999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="18">
+        <v>312</v>
+      </c>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6">
+        <v>19.687000000000001</v>
+      </c>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6">
+        <v>19.689</v>
+      </c>
+      <c r="AI34" s="6">
+        <v>19.669</v>
+      </c>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6">
+        <v>19.673999999999999</v>
+      </c>
+      <c r="AN34" s="6">
+        <v>19.677</v>
+      </c>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6">
         <v>19.693000000000001</v>
       </c>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6">
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="6">
         <v>19.677</v>
       </c>
-      <c r="AT23" s="24"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="AT34" s="24"/>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B35" s="18">
         <v>322</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA35" s="6">
         <v>19.914999999999999</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AB35" s="6">
         <v>19.914999999999999</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AC35" s="6">
         <v>19.917999999999999</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AD35" s="6">
         <v>19.91</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AE35" s="6">
         <v>19.911999999999999</v>
       </c>
-      <c r="AF24" s="6">
+      <c r="AF35" s="6">
         <v>19.916</v>
       </c>
-      <c r="AG24" s="6">
+      <c r="AG35" s="6">
         <v>19.91</v>
       </c>
-      <c r="AH24" s="6">
+      <c r="AH35" s="6">
         <v>19.928999999999998</v>
       </c>
-      <c r="AI24" s="6">
+      <c r="AI35" s="6">
         <v>19.913</v>
       </c>
-      <c r="AJ24" s="6">
+      <c r="AJ35" s="6">
         <v>19.908000000000001</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AK35" s="6">
         <v>19.91</v>
       </c>
-      <c r="AL24" s="6">
+      <c r="AL35" s="6">
         <v>19.911000000000001</v>
       </c>
-      <c r="AM24" s="6">
+      <c r="AM35" s="6">
         <v>19.914999999999999</v>
       </c>
-      <c r="AN24" s="6">
+      <c r="AN35" s="6">
         <v>19.913</v>
       </c>
-      <c r="AO24" s="6">
+      <c r="AO35" s="6">
         <v>19.908000000000001</v>
       </c>
-      <c r="AP24" s="6">
+      <c r="AP35" s="6">
         <v>19.91</v>
       </c>
-      <c r="AQ24" s="6">
+      <c r="AQ35" s="6">
         <v>19.908999999999999</v>
       </c>
-      <c r="AR24" s="6">
+      <c r="AR35" s="6">
         <v>19.913</v>
       </c>
-      <c r="AS24" s="6">
+      <c r="AS35" s="6">
         <v>19.927</v>
       </c>
-      <c r="AT24" s="24">
+      <c r="AT35" s="24">
         <v>19.905999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="AU35" s="17">
+        <v>20.166</v>
+      </c>
+      <c r="AV35" s="17">
+        <v>20.164999999999999</v>
+      </c>
+      <c r="AW35" s="17">
+        <v>20.213000000000001</v>
+      </c>
+      <c r="AX35" s="17">
+        <v>20.166</v>
+      </c>
+      <c r="AY35" s="17">
+        <v>20.193999999999999</v>
+      </c>
+      <c r="AZ35" s="17">
+        <v>20.2</v>
+      </c>
+      <c r="BA35" s="17">
+        <v>20.187999999999999</v>
+      </c>
+      <c r="BB35" s="17">
+        <v>20.192</v>
+      </c>
+      <c r="BC35" s="17">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="BD35" s="17">
+        <v>20.202000000000002</v>
+      </c>
+      <c r="BE35" s="17">
+        <v>20.201000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B36" s="18">
         <v>324</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA36" s="6">
         <v>20.16</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AB36" s="6">
         <v>20.161000000000001</v>
       </c>
-      <c r="AC25" s="6">
+      <c r="AC36" s="6">
         <v>20.164999999999999</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AD36" s="6">
         <v>20.149999999999999</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AE36" s="6">
         <v>20.166</v>
       </c>
-      <c r="AF25" s="6">
+      <c r="AF36" s="6">
         <v>20.155000000000001</v>
       </c>
-      <c r="AG25" s="6">
+      <c r="AG36" s="6">
         <v>20.145</v>
       </c>
-      <c r="AH25" s="6">
+      <c r="AH36" s="6">
         <v>20.167000000000002</v>
       </c>
-      <c r="AI25" s="6">
+      <c r="AI36" s="6">
         <v>20.149000000000001</v>
       </c>
-      <c r="AJ25" s="6">
+      <c r="AJ36" s="6">
         <v>20.128</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AK36" s="6">
         <v>20.132999999999999</v>
       </c>
-      <c r="AL25" s="6">
+      <c r="AL36" s="6">
         <v>20.148</v>
       </c>
-      <c r="AM25" s="6">
+      <c r="AM36" s="6">
         <v>20.157</v>
       </c>
-      <c r="AN25" s="6">
+      <c r="AN36" s="6">
         <v>20.138000000000002</v>
       </c>
-      <c r="AO25" s="6">
+      <c r="AO36" s="6">
         <v>20.145</v>
       </c>
-      <c r="AP25" s="6">
+      <c r="AP36" s="6">
         <v>20.154</v>
       </c>
-      <c r="AQ25" s="6">
+      <c r="AQ36" s="6">
         <v>20.148</v>
       </c>
-      <c r="AR25" s="6">
+      <c r="AR36" s="6">
         <v>20.166</v>
       </c>
-      <c r="AS25" s="6">
+      <c r="AS36" s="6">
         <v>20.178999999999998</v>
       </c>
-      <c r="AT25" s="24">
+      <c r="AT36" s="24">
         <v>20.158999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="AU36" s="29">
+        <v>20.233000000000001</v>
+      </c>
+      <c r="AV36" s="29">
+        <v>20.690999999999999</v>
+      </c>
+      <c r="AW36" s="17"/>
+      <c r="AX36" s="17">
+        <v>20.233000000000001</v>
+      </c>
+      <c r="AY36" s="17"/>
+      <c r="AZ36" s="17"/>
+      <c r="BA36" s="17">
+        <v>20.709</v>
+      </c>
+      <c r="BB36" s="17">
+        <v>20.704999999999998</v>
+      </c>
+      <c r="BC36" s="17">
+        <v>20.699000000000002</v>
+      </c>
+      <c r="BD36" s="17">
+        <v>20.709</v>
+      </c>
+      <c r="BE36" s="17">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B37" s="5">
         <v>332</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C37" s="1">
         <v>20.192</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D37" s="1">
         <v>20.207999999999998</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E37" s="1">
         <v>20.234999999999999</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F37" s="1">
         <v>20.274000000000001</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G37" s="1">
         <v>20.234000000000002</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H37" s="1">
         <v>20.161999999999999</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I37" s="1">
         <v>20.277000000000001</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J37" s="1">
         <v>20.196999999999999</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K37" s="1">
         <v>20.175999999999998</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L37" s="1">
         <v>20.225000000000001</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M37" s="1">
         <v>20.189</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N37" s="1">
         <v>20.242999999999999</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O37" s="1">
         <v>20.216000000000001</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P37" s="1">
         <v>20.175000000000001</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q37" s="1">
         <v>20.190000000000001</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R37" s="1">
         <v>20.265000000000001</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S37" s="1">
         <v>20.206</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T37" s="1">
         <v>20.286000000000001</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U37" s="1">
         <v>20.209</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V37" s="1">
         <v>20.145</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W37" s="1">
         <v>20.190999999999999</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X37" s="1">
         <v>20.132000000000001</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y37" s="1">
         <v>20.132000000000001</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z37" s="1">
         <v>20.146000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="5">
-        <v>338</v>
-      </c>
-      <c r="C27" s="1">
-        <v>20.96</v>
-      </c>
-      <c r="D27" s="1">
-        <v>20.963000000000001</v>
-      </c>
-      <c r="E27" s="1">
-        <v>20.965</v>
-      </c>
-      <c r="F27" s="1">
-        <v>20.968</v>
-      </c>
-      <c r="G27" s="1">
-        <v>20.96</v>
-      </c>
-      <c r="H27" s="1">
-        <v>20.954999999999998</v>
-      </c>
-      <c r="I27" s="1">
-        <v>20.966999999999999</v>
-      </c>
-      <c r="J27" s="1">
-        <v>20.959</v>
-      </c>
-      <c r="K27" s="1">
-        <v>20.962</v>
-      </c>
-      <c r="L27" s="1">
-        <v>20.963000000000001</v>
-      </c>
-      <c r="M27" s="1">
-        <v>20.960999999999999</v>
-      </c>
-      <c r="N27" s="1">
-        <v>20.969000000000001</v>
-      </c>
-      <c r="O27" s="1">
-        <v>20.965</v>
-      </c>
-      <c r="P27" s="1">
-        <v>20.960999999999999</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>20.963000000000001</v>
-      </c>
-      <c r="R27" s="1">
-        <v>20.97</v>
-      </c>
-      <c r="S27" s="1">
-        <v>20.963999999999999</v>
-      </c>
-      <c r="T27" s="1">
-        <v>20.978999999999999</v>
-      </c>
-      <c r="U27" s="1">
-        <v>20.966000000000001</v>
-      </c>
-      <c r="V27" s="1">
-        <v>20.962</v>
-      </c>
-      <c r="W27" s="1">
-        <v>20.963999999999999</v>
-      </c>
-      <c r="X27" s="1">
-        <v>20.960999999999999</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>20.963000000000001</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>20.960999999999999</v>
-      </c>
-      <c r="AA27" s="6">
-        <v>20.96</v>
-      </c>
-      <c r="AB27" s="6">
-        <v>20.959</v>
-      </c>
-      <c r="AC27" s="6">
-        <v>20.962</v>
-      </c>
-      <c r="AD27" s="6">
-        <v>20.957000000000001</v>
-      </c>
-      <c r="AE27" s="6">
-        <v>20.957999999999998</v>
-      </c>
-      <c r="AF27" s="6">
-        <v>20.963000000000001</v>
-      </c>
-      <c r="AG27" s="6">
-        <v>20.957000000000001</v>
-      </c>
-      <c r="AH27" s="6">
-        <v>20.968</v>
-      </c>
-      <c r="AI27" s="6">
-        <v>20.957999999999998</v>
-      </c>
-      <c r="AJ27" s="6">
-        <v>20.956</v>
-      </c>
-      <c r="AK27" s="6">
-        <v>20.957000000000001</v>
-      </c>
-      <c r="AL27" s="6">
-        <v>20.957000000000001</v>
-      </c>
-      <c r="AM27" s="6">
-        <v>20.959</v>
-      </c>
-      <c r="AN27" s="6">
-        <v>20.957999999999998</v>
-      </c>
-      <c r="AO27" s="6">
-        <v>20.956</v>
-      </c>
-      <c r="AP27" s="6">
-        <v>20.957000000000001</v>
-      </c>
-      <c r="AQ27" s="6">
-        <v>20.956</v>
-      </c>
-      <c r="AR27" s="6">
-        <v>20.956</v>
-      </c>
-      <c r="AS27" s="6">
-        <v>20.963999999999999</v>
-      </c>
-      <c r="AT27" s="24">
-        <v>20.952000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="5">
-        <v>340</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <v>21.41</v>
-      </c>
-      <c r="E28" s="1">
-        <v>21.407</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1">
-        <v>21.393999999999998</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1">
-        <v>21.405999999999999</v>
-      </c>
-      <c r="J28" s="1">
-        <v>21.399000000000001</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1">
-        <v>21.402000000000001</v>
-      </c>
-      <c r="M28" s="1">
-        <v>21.454999999999998</v>
-      </c>
-      <c r="N28" s="1">
-        <v>21.411999999999999</v>
-      </c>
-      <c r="O28" s="1">
-        <v>21.405999999999999</v>
-      </c>
-      <c r="P28" s="1">
-        <v>21.402000000000001</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>21.404</v>
-      </c>
-      <c r="R28" s="1">
-        <v>21.405000000000001</v>
-      </c>
-      <c r="S28" s="1">
-        <v>21.405000000000001</v>
-      </c>
-      <c r="T28" s="1">
-        <v>21.416</v>
-      </c>
-      <c r="U28" s="1">
-        <v>21.405999999999999</v>
-      </c>
-      <c r="V28" s="1">
-        <v>21.402999999999999</v>
-      </c>
-      <c r="W28" s="1">
-        <v>21.405999999999999</v>
-      </c>
-      <c r="X28" s="1">
-        <v>21.402000000000001</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>21.405999999999999</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>21.404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="5">
-        <v>350</v>
-      </c>
-      <c r="C29" s="1">
-        <v>21.567</v>
-      </c>
-      <c r="D29" s="1">
-        <v>21.571999999999999</v>
-      </c>
-      <c r="E29" s="1">
-        <v>21.581</v>
-      </c>
-      <c r="F29" s="1">
-        <v>21.574999999999999</v>
-      </c>
-      <c r="G29" s="1">
-        <v>21.568000000000001</v>
-      </c>
-      <c r="H29" s="1">
-        <v>21.561</v>
-      </c>
-      <c r="I29" s="1">
-        <v>21.573</v>
-      </c>
-      <c r="J29" s="1">
-        <v>21.567</v>
-      </c>
-      <c r="K29" s="1">
-        <v>21.571000000000002</v>
-      </c>
-      <c r="L29" s="1">
-        <v>21.571999999999999</v>
-      </c>
-      <c r="M29" s="1">
-        <v>21.57</v>
-      </c>
-      <c r="N29" s="1">
-        <v>21.582999999999998</v>
-      </c>
-      <c r="O29" s="1">
-        <v>21.573</v>
-      </c>
-      <c r="P29" s="1">
-        <v>21.568999999999999</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>21.573</v>
-      </c>
-      <c r="R29" s="1">
-        <v>21.576000000000001</v>
-      </c>
-      <c r="S29" s="1">
-        <v>21.574999999999999</v>
-      </c>
-      <c r="T29" s="1">
-        <v>21.59</v>
-      </c>
-      <c r="U29" s="1">
-        <v>21.576000000000001</v>
-      </c>
-      <c r="V29" s="1">
-        <v>21.567</v>
-      </c>
-      <c r="W29" s="1">
-        <v>21.574999999999999</v>
-      </c>
-      <c r="X29" s="1">
-        <v>21.564</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>21.568000000000001</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>21.568000000000001</v>
-      </c>
-      <c r="AA29" s="6">
-        <v>21.567</v>
-      </c>
-      <c r="AB29" s="6">
-        <v>21.565999999999999</v>
-      </c>
-      <c r="AC29" s="6">
-        <v>21.568000000000001</v>
-      </c>
-      <c r="AD29" s="6">
-        <v>21.562999999999999</v>
-      </c>
-      <c r="AE29" s="6">
-        <v>21.565000000000001</v>
-      </c>
-      <c r="AF29" s="6">
-        <v>21.568999999999999</v>
-      </c>
-      <c r="AG29" s="6">
-        <v>21.562999999999999</v>
-      </c>
-      <c r="AH29" s="6">
-        <v>21.57</v>
-      </c>
-      <c r="AI29" s="6">
-        <v>21.564</v>
-      </c>
-      <c r="AJ29" s="6">
-        <v>21.559000000000001</v>
-      </c>
-      <c r="AK29" s="6">
-        <v>21.561</v>
-      </c>
-      <c r="AL29" s="6">
-        <v>21.564</v>
-      </c>
-      <c r="AM29" s="6">
-        <v>21.564</v>
-      </c>
-      <c r="AN29" s="6">
-        <v>21.561</v>
-      </c>
-      <c r="AO29" s="6">
-        <v>21.561</v>
-      </c>
-      <c r="AP29" s="6">
-        <v>21.562999999999999</v>
-      </c>
-      <c r="AQ29" s="6">
-        <v>21.562999999999999</v>
-      </c>
-      <c r="AR29" s="6">
-        <v>21.562000000000001</v>
-      </c>
-      <c r="AS29" s="6">
-        <v>21.568000000000001</v>
-      </c>
-      <c r="AT29" s="24">
-        <v>21.565000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="5">
-        <v>350</v>
-      </c>
-      <c r="C30" s="1">
-        <v>21.620999999999999</v>
-      </c>
-      <c r="D30" s="1">
-        <v>21.623000000000001</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
-        <v>21.623000000000001</v>
-      </c>
-      <c r="G30" s="1">
-        <v>21.620999999999999</v>
-      </c>
-      <c r="H30" s="1">
-        <v>21.616</v>
-      </c>
-      <c r="I30" s="1">
-        <v>21.626999999999999</v>
-      </c>
-      <c r="J30" s="1">
-        <v>21.616</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1">
-        <v>21.622</v>
-      </c>
-      <c r="M30" s="1">
-        <v>21.622</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1">
-        <v>21.625</v>
-      </c>
-      <c r="P30" s="1">
-        <v>21.62</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>21.625</v>
-      </c>
-      <c r="R30" s="1">
-        <v>21.628</v>
-      </c>
-      <c r="S30" s="1">
-        <v>21.625</v>
-      </c>
-      <c r="T30" s="1">
-        <v>21.637</v>
-      </c>
-      <c r="U30" s="1">
-        <v>21.626000000000001</v>
-      </c>
-      <c r="V30" s="1">
-        <v>21.622</v>
-      </c>
-      <c r="W30" s="1">
-        <v>21.626000000000001</v>
-      </c>
-      <c r="X30" s="1">
-        <v>21.620999999999999</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>21.623999999999999</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>21.62</v>
-      </c>
-      <c r="AA30" s="6">
-        <v>21.62</v>
-      </c>
-      <c r="AB30" s="6">
-        <v>21.619</v>
-      </c>
-      <c r="AC30" s="6">
-        <v>21.622</v>
-      </c>
-      <c r="AD30" s="6">
-        <v>21.617999999999999</v>
-      </c>
-      <c r="AE30" s="6">
-        <v>21.617999999999999</v>
-      </c>
-      <c r="AF30" s="6">
-        <v>21.623999999999999</v>
-      </c>
-      <c r="AG30" s="6">
-        <v>21.617999999999999</v>
-      </c>
-      <c r="AH30" s="6">
-        <v>21.625</v>
-      </c>
-      <c r="AI30" s="6">
-        <v>21.619</v>
-      </c>
-      <c r="AJ30" s="6">
-        <v>21.614999999999998</v>
-      </c>
-      <c r="AK30" s="6">
-        <v>21.616</v>
-      </c>
-      <c r="AL30" s="6">
-        <v>21.617000000000001</v>
-      </c>
-      <c r="AM30" s="6">
-        <v>21.619</v>
-      </c>
-      <c r="AN30" s="6">
-        <v>21.617000000000001</v>
-      </c>
-      <c r="AO30" s="6">
-        <v>21.616</v>
-      </c>
-      <c r="AP30" s="6">
-        <v>21.617000000000001</v>
-      </c>
-      <c r="AQ30" s="6">
-        <v>21.617000000000001</v>
-      </c>
-      <c r="AR30" s="6">
-        <v>21.617000000000001</v>
-      </c>
-      <c r="AS30" s="6">
-        <v>21.623000000000001</v>
-      </c>
-      <c r="AT30" s="24">
-        <v>21.614999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="5">
-        <v>352</v>
-      </c>
-      <c r="C31" s="1">
-        <v>21.774999999999999</v>
-      </c>
-      <c r="D31" s="1">
-        <v>21.792000000000002</v>
-      </c>
-      <c r="E31" s="1">
-        <v>21.803000000000001</v>
-      </c>
-      <c r="F31" s="1">
-        <v>21.805</v>
-      </c>
-      <c r="G31" s="1">
-        <v>21.786999999999999</v>
-      </c>
-      <c r="H31" s="1">
-        <v>21.774999999999999</v>
-      </c>
-      <c r="I31" s="1">
-        <v>21.803999999999998</v>
-      </c>
-      <c r="J31" s="1">
-        <v>21.777000000000001</v>
-      </c>
-      <c r="K31" s="1">
-        <v>21.795999999999999</v>
-      </c>
-      <c r="L31" s="1">
-        <v>21.79</v>
-      </c>
-      <c r="M31" s="1">
-        <v>21.788</v>
-      </c>
-      <c r="N31" s="1">
-        <v>21.802</v>
-      </c>
-      <c r="O31" s="1">
-        <v>21.797000000000001</v>
-      </c>
-      <c r="P31" s="1">
-        <v>21.774999999999999</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>21.783000000000001</v>
-      </c>
-      <c r="R31" s="1">
-        <v>21.795000000000002</v>
-      </c>
-      <c r="S31" s="1">
-        <v>21.789000000000001</v>
-      </c>
-      <c r="T31" s="1">
-        <v>21.821000000000002</v>
-      </c>
-      <c r="U31" s="1">
-        <v>21.8</v>
-      </c>
-      <c r="V31" s="1">
-        <v>21.768999999999998</v>
-      </c>
-      <c r="W31" s="1">
-        <v>21.800999999999998</v>
-      </c>
-      <c r="X31" s="1">
-        <v>21.762</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>21.777000000000001</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>21.774000000000001</v>
-      </c>
-      <c r="AA31" s="6">
-        <v>21.77</v>
-      </c>
-      <c r="AB31" s="6">
-        <v>21.77</v>
-      </c>
-      <c r="AC31" s="6">
-        <v>21.773</v>
-      </c>
-      <c r="AD31" s="6">
-        <v>21.763999999999999</v>
-      </c>
-      <c r="AE31" s="6">
-        <v>21.77</v>
-      </c>
-      <c r="AF31" s="6">
-        <v>21.771000000000001</v>
-      </c>
-      <c r="AG31" s="6">
-        <v>21.763000000000002</v>
-      </c>
-      <c r="AH31" s="6">
-        <v>21.776</v>
-      </c>
-      <c r="AI31" s="6">
-        <v>21.763999999999999</v>
-      </c>
-      <c r="AJ31" s="6">
-        <v>21.754000000000001</v>
-      </c>
-      <c r="AK31" s="6">
-        <v>21.757999999999999</v>
-      </c>
-      <c r="AL31" s="6">
-        <v>21.763000000000002</v>
-      </c>
-      <c r="AM31" s="6">
-        <v>21.766999999999999</v>
-      </c>
-      <c r="AN31" s="6">
-        <v>21.759</v>
-      </c>
-      <c r="AO31" s="6">
-        <v>21.762</v>
-      </c>
-      <c r="AP31" s="6">
-        <v>21.765999999999998</v>
-      </c>
-      <c r="AQ31" s="6">
-        <v>21.762</v>
-      </c>
-      <c r="AR31" s="6">
-        <v>21.768999999999998</v>
-      </c>
-      <c r="AS31" s="6">
-        <v>21.774999999999999</v>
-      </c>
-      <c r="AT31" s="24">
-        <v>21.765999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="18">
-        <v>364</v>
-      </c>
-      <c r="AA32" s="6">
-        <v>22.338999999999999</v>
-      </c>
-      <c r="AB32" s="6">
-        <v>22.34</v>
-      </c>
-      <c r="AC32" s="6">
-        <v>22.341000000000001</v>
-      </c>
-      <c r="AD32" s="6">
-        <v>22.338999999999999</v>
-      </c>
-      <c r="AE32" s="6">
-        <v>22.338000000000001</v>
-      </c>
-      <c r="AF32" s="6">
-        <v>22.344000000000001</v>
-      </c>
-      <c r="AG32" s="6">
-        <v>22.34</v>
-      </c>
-      <c r="AH32" s="6">
-        <v>22.344000000000001</v>
-      </c>
-      <c r="AI32" s="6">
-        <v>22.338999999999999</v>
-      </c>
-      <c r="AJ32" s="6">
-        <v>22.338999999999999</v>
-      </c>
-      <c r="AK32" s="6">
-        <v>22.338000000000001</v>
-      </c>
-      <c r="AL32" s="6">
-        <v>22.338000000000001</v>
-      </c>
-      <c r="AM32" s="6">
-        <v>22.338999999999999</v>
-      </c>
-      <c r="AN32" s="6">
-        <v>22.338000000000001</v>
-      </c>
-      <c r="AO32" s="6">
-        <v>22.337</v>
-      </c>
-      <c r="AP32" s="6">
-        <v>22.338999999999999</v>
-      </c>
-      <c r="AQ32" s="6">
-        <v>22.338000000000001</v>
-      </c>
-      <c r="AR32" s="6">
-        <v>22.335000000000001</v>
-      </c>
-      <c r="AS32" s="6">
-        <v>22.338999999999999</v>
-      </c>
-      <c r="AT32" s="24">
-        <v>22.332999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="5">
-        <v>366</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1">
-        <v>22.405999999999999</v>
-      </c>
-      <c r="E33" s="1">
-        <v>22.404</v>
-      </c>
-      <c r="F33" s="1">
-        <v>22.408000000000001</v>
-      </c>
-      <c r="G33" s="1">
-        <v>22.411999999999999</v>
-      </c>
-      <c r="H33" s="1">
-        <v>22.407</v>
-      </c>
-      <c r="I33" s="1">
-        <v>22.402999999999999</v>
-      </c>
-      <c r="J33" s="1">
-        <v>22.408999999999999</v>
-      </c>
-      <c r="K33" s="1">
-        <v>22.414000000000001</v>
-      </c>
-      <c r="L33" s="1">
-        <v>22.401</v>
-      </c>
-      <c r="M33" s="1">
-        <v>22.405999999999999</v>
-      </c>
-      <c r="N33" s="1">
-        <v>22.408000000000001</v>
-      </c>
-      <c r="O33" s="1">
-        <v>22.404</v>
-      </c>
-      <c r="P33" s="1">
-        <v>22.402000000000001</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>22.405999999999999</v>
-      </c>
-      <c r="R33" s="1">
-        <v>22.411999999999999</v>
-      </c>
-      <c r="S33" s="1">
-        <v>22.402999999999999</v>
-      </c>
-      <c r="T33" s="1">
-        <v>22.41</v>
-      </c>
-      <c r="U33" s="1">
-        <v>22.417000000000002</v>
-      </c>
-      <c r="V33" s="1">
-        <v>22.405000000000001</v>
-      </c>
-      <c r="W33" s="1">
-        <v>22.405000000000001</v>
-      </c>
-      <c r="X33" s="1">
-        <v>22.405999999999999</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>22.408000000000001</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>22.41</v>
-      </c>
-      <c r="AA33" s="6">
-        <v>22.521000000000001</v>
-      </c>
-      <c r="AB33" s="6">
-        <v>22.521000000000001</v>
-      </c>
-      <c r="AC33" s="6">
-        <v>22.523</v>
-      </c>
-      <c r="AD33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AE33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AF33" s="6">
-        <v>22.526</v>
-      </c>
-      <c r="AG33" s="6">
-        <v>22.521000000000001</v>
-      </c>
-      <c r="AH33" s="6">
-        <v>22.524999999999999</v>
-      </c>
-      <c r="AI33" s="6">
-        <v>22.521000000000001</v>
-      </c>
-      <c r="AJ33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AK33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AL33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AM33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AN33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AO33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AP33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AQ33" s="6">
-        <v>22.518999999999998</v>
-      </c>
-      <c r="AR33" s="6">
-        <v>22.516999999999999</v>
-      </c>
-      <c r="AS33" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="AT33" s="24">
-        <v>22.515000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="5">
-        <v>368</v>
-      </c>
-      <c r="C34" s="1">
-        <v>22.597999999999999</v>
-      </c>
-      <c r="D34" s="1">
-        <v>22.599</v>
-      </c>
-      <c r="E34" s="1">
-        <v>22.606000000000002</v>
-      </c>
-      <c r="F34" s="1">
-        <v>22.599</v>
-      </c>
-      <c r="G34" s="1">
-        <v>22.606000000000002</v>
-      </c>
-      <c r="H34" s="1">
-        <v>22.594999999999999</v>
-      </c>
-      <c r="I34" s="1">
-        <v>22.606000000000002</v>
-      </c>
-      <c r="J34" s="1">
-        <v>22.6</v>
-      </c>
-      <c r="K34" s="1">
-        <v>22.602</v>
-      </c>
-      <c r="L34" s="1">
-        <v>22.597999999999999</v>
-      </c>
-      <c r="M34" s="1">
-        <v>22.597999999999999</v>
-      </c>
-      <c r="N34" s="1">
-        <v>22.606000000000002</v>
-      </c>
-      <c r="O34" s="1">
-        <v>22.600999999999999</v>
-      </c>
-      <c r="P34" s="1">
-        <v>22.599</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>22.602</v>
-      </c>
-      <c r="R34" s="1">
-        <v>22.608000000000001</v>
-      </c>
-      <c r="S34" s="1">
-        <v>22.597999999999999</v>
-      </c>
-      <c r="T34" s="1">
-        <v>22.608000000000001</v>
-      </c>
-      <c r="U34" s="1">
-        <v>22.605</v>
-      </c>
-      <c r="V34" s="1">
-        <v>22.6</v>
-      </c>
-      <c r="W34" s="1">
-        <v>22.603999999999999</v>
-      </c>
-      <c r="X34" s="1">
-        <v>22.597999999999999</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>22.600999999999999</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="5">
-        <v>378</v>
-      </c>
-      <c r="C35" s="1">
-        <v>23.09</v>
-      </c>
-      <c r="D35" s="1">
-        <v>23.091000000000001</v>
-      </c>
-      <c r="E35" s="1">
-        <v>23.091000000000001</v>
-      </c>
-      <c r="F35" s="1">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="G35" s="1">
-        <v>23.091000000000001</v>
-      </c>
-      <c r="H35" s="1">
-        <v>23.087</v>
-      </c>
-      <c r="I35" s="1">
-        <v>23.093</v>
-      </c>
-      <c r="J35" s="1">
-        <v>23.088999999999999</v>
-      </c>
-      <c r="K35" s="1">
-        <v>23.091999999999999</v>
-      </c>
-      <c r="L35" s="1">
-        <v>23.091999999999999</v>
-      </c>
-      <c r="M35" s="1">
-        <v>23.09</v>
-      </c>
-      <c r="N35" s="1">
-        <v>23.099</v>
-      </c>
-      <c r="O35" s="1">
-        <v>23.094999999999999</v>
-      </c>
-      <c r="P35" s="1">
-        <v>23.093</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>23.094999999999999</v>
-      </c>
-      <c r="R35" s="1">
-        <v>23.097000000000001</v>
-      </c>
-      <c r="S35" s="1">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="T35" s="1">
-        <v>23.1</v>
-      </c>
-      <c r="U35" s="1">
-        <v>23.096</v>
-      </c>
-      <c r="V35" s="1">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="W35" s="1">
-        <v>23.097999999999999</v>
-      </c>
-      <c r="X35" s="1">
-        <v>23.091999999999999</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>23.094000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="5">
-        <v>380</v>
-      </c>
-      <c r="C36" s="1">
-        <v>23.262</v>
-      </c>
-      <c r="D36" s="1">
-        <v>23.265000000000001</v>
-      </c>
-      <c r="E36" s="1">
-        <v>23.265999999999998</v>
-      </c>
-      <c r="F36" s="1">
-        <v>23.268000000000001</v>
-      </c>
-      <c r="G36" s="1">
-        <v>23.265999999999998</v>
-      </c>
-      <c r="H36" s="1">
-        <v>23.259</v>
-      </c>
-      <c r="I36" s="1">
-        <v>23.271999999999998</v>
-      </c>
-      <c r="J36" s="1">
-        <v>23.262</v>
-      </c>
-      <c r="K36" s="1">
-        <v>23.265000000000001</v>
-      </c>
-      <c r="L36" s="1">
-        <v>23.271000000000001</v>
-      </c>
-      <c r="M36" s="1">
-        <v>23.263000000000002</v>
-      </c>
-      <c r="N36" s="1">
-        <v>23.271999999999998</v>
-      </c>
-      <c r="O36" s="1">
-        <v>23.266999999999999</v>
-      </c>
-      <c r="P36" s="1">
-        <v>23.263999999999999</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>23.266999999999999</v>
-      </c>
-      <c r="R36" s="1">
-        <v>23.271000000000001</v>
-      </c>
-      <c r="S36" s="1">
-        <v>23.265999999999998</v>
-      </c>
-      <c r="T36" s="1">
-        <v>23.274000000000001</v>
-      </c>
-      <c r="U36" s="1">
-        <v>23.268999999999998</v>
-      </c>
-      <c r="V36" s="1">
-        <v>23.265000000000001</v>
-      </c>
-      <c r="W36" s="1">
-        <v>23.277999999999999</v>
-      </c>
-      <c r="X36" s="1">
-        <v>23.262</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>23.266999999999999</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>23.265000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="5">
-        <v>394</v>
-      </c>
-      <c r="C37" s="1">
-        <v>23.343</v>
-      </c>
-      <c r="D37" s="1">
-        <v>23.338999999999999</v>
-      </c>
-      <c r="E37" s="1">
-        <v>23.335999999999999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>23.346</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1">
-        <v>23.338000000000001</v>
-      </c>
-      <c r="I37" s="1">
-        <v>23.338999999999999</v>
-      </c>
-      <c r="J37" s="1">
-        <v>23.341999999999999</v>
-      </c>
-      <c r="K37" s="1">
-        <v>23.347000000000001</v>
-      </c>
-      <c r="L37" s="1">
-        <v>23.338999999999999</v>
-      </c>
-      <c r="M37" s="1">
-        <v>23.341999999999999</v>
-      </c>
-      <c r="N37" s="1">
-        <v>23.341999999999999</v>
-      </c>
-      <c r="O37" s="1">
-        <v>23.34</v>
-      </c>
-      <c r="P37" s="1">
-        <v>23.344999999999999</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>23.347000000000001</v>
-      </c>
-      <c r="R37" s="1">
-        <v>23.346</v>
-      </c>
-      <c r="S37" s="1">
-        <v>23.34</v>
-      </c>
-      <c r="T37" s="1">
-        <v>23.344000000000001</v>
-      </c>
-      <c r="U37" s="1">
-        <v>23.347999999999999</v>
-      </c>
-      <c r="V37" s="1">
-        <v>23.344000000000001</v>
-      </c>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1">
-        <v>23.343</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>23.344000000000001</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>23.343</v>
-      </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>49</v>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B38" s="5">
-        <v>396</v>
-      </c>
-      <c r="C38" s="1">
-        <v>24.047000000000001</v>
-      </c>
-      <c r="D38" s="1">
-        <v>24.045000000000002</v>
-      </c>
-      <c r="E38" s="1">
-        <v>24.045000000000002</v>
-      </c>
-      <c r="F38" s="1">
-        <v>24.045999999999999</v>
-      </c>
-      <c r="G38" s="1">
-        <v>24.045999999999999</v>
-      </c>
-      <c r="H38" s="1">
-        <v>24.044</v>
-      </c>
-      <c r="I38" s="1">
-        <v>24.045999999999999</v>
-      </c>
-      <c r="J38" s="1">
-        <v>24.047000000000001</v>
-      </c>
-      <c r="K38" s="1">
-        <v>24.047000000000001</v>
-      </c>
-      <c r="L38" s="1">
-        <v>24.047000000000001</v>
-      </c>
-      <c r="M38" s="1">
-        <v>24.047000000000001</v>
-      </c>
-      <c r="N38" s="1">
-        <v>24.050999999999998</v>
-      </c>
-      <c r="O38" s="1">
-        <v>24.05</v>
-      </c>
-      <c r="P38" s="1">
-        <v>24.048999999999999</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>24.050999999999998</v>
-      </c>
-      <c r="R38" s="1">
-        <v>24.052</v>
-      </c>
-      <c r="S38" s="1">
-        <v>24.048999999999999</v>
-      </c>
-      <c r="T38" s="1">
-        <v>24.053000000000001</v>
-      </c>
-      <c r="U38" s="1">
-        <v>24.052</v>
-      </c>
-      <c r="V38" s="1">
-        <v>24.052</v>
-      </c>
-      <c r="W38" s="1">
-        <v>24.052</v>
-      </c>
-      <c r="X38" s="1">
-        <v>24.050999999999998</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>24.050999999999998</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>24.050999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="18">
-        <v>406</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AU38" s="17">
+        <v>19.798999999999999</v>
+      </c>
+      <c r="AV38" s="17">
+        <v>19.780999999999999</v>
+      </c>
+      <c r="AW38" s="17">
+        <v>19.805</v>
+      </c>
+      <c r="AX38" s="17">
+        <v>19.798999999999999</v>
+      </c>
+      <c r="AY38" s="17">
+        <v>19.786000000000001</v>
+      </c>
+      <c r="AZ38" s="17">
+        <v>19.783000000000001</v>
+      </c>
+      <c r="BA38" s="17">
+        <v>19.774000000000001</v>
+      </c>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="17"/>
+      <c r="BD38" s="17">
+        <v>19.773</v>
+      </c>
+      <c r="BE38" s="17">
+        <v>19.776</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="5">
+        <v>336</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-      <c r="AA39" s="6">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="AB39" s="6">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="AC39" s="6">
-        <v>23.097000000000001</v>
-      </c>
-      <c r="AD39" s="6">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="AE39" s="6">
-        <v>23.096</v>
-      </c>
-      <c r="AF39" s="6">
-        <v>23.099</v>
-      </c>
-      <c r="AG39" s="6">
-        <v>23.093</v>
-      </c>
-      <c r="AH39" s="6">
-        <v>23.096</v>
-      </c>
-      <c r="AI39" s="6">
-        <v>23.094999999999999</v>
-      </c>
-      <c r="AJ39" s="6">
-        <v>23.09</v>
-      </c>
-      <c r="AK39" s="6">
-        <v>23.091999999999999</v>
-      </c>
-      <c r="AL39" s="6">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="AM39" s="6">
-        <v>23.093</v>
-      </c>
-      <c r="AN39" s="6">
-        <v>23.09</v>
-      </c>
-      <c r="AO39" s="6">
-        <v>23.091000000000001</v>
-      </c>
-      <c r="AP39" s="6">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="AQ39" s="6">
-        <v>23.093</v>
-      </c>
-      <c r="AR39" s="6">
-        <v>23.091000000000001</v>
-      </c>
-      <c r="AS39" s="6">
-        <v>23.093</v>
-      </c>
-      <c r="AT39" s="24">
-        <v>23.096</v>
-      </c>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="18">
-        <v>406</v>
-      </c>
+      <c r="Z39" s="1"/>
+      <c r="AU39" s="17">
+        <v>20.774999999999999</v>
+      </c>
+      <c r="AV39" s="17">
+        <v>20.73</v>
+      </c>
+      <c r="AW39" s="17">
+        <v>20.77</v>
+      </c>
+      <c r="AX39" s="17">
+        <v>20.774999999999999</v>
+      </c>
+      <c r="AY39" s="17">
+        <v>20.766999999999999</v>
+      </c>
+      <c r="AZ39" s="17">
+        <v>20.765999999999998</v>
+      </c>
+      <c r="BA39" s="17">
+        <v>20.766999999999999</v>
+      </c>
+      <c r="BB39" s="17">
+        <v>20.765000000000001</v>
+      </c>
+      <c r="BC39" s="17">
+        <v>20.762</v>
+      </c>
+      <c r="BD39" s="17">
+        <v>20.766999999999999</v>
+      </c>
+      <c r="BE39" s="17">
+        <v>20.768999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="5">
+        <v>336</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-      <c r="AA40" s="6">
-        <v>23.155000000000001</v>
-      </c>
-      <c r="AB40" s="6">
-        <v>23.152999999999999</v>
-      </c>
-      <c r="AC40" s="6">
-        <v>23.155000000000001</v>
-      </c>
-      <c r="AD40" s="6">
-        <v>23.15</v>
-      </c>
-      <c r="AE40" s="6">
-        <v>23.151</v>
-      </c>
-      <c r="AF40" s="6">
-        <v>23.155999999999999</v>
-      </c>
-      <c r="AG40" s="6">
-        <v>23.151</v>
-      </c>
-      <c r="AH40" s="6">
-        <v>23.152999999999999</v>
-      </c>
-      <c r="AI40" s="6">
-        <v>23.152000000000001</v>
-      </c>
-      <c r="AJ40" s="6">
-        <v>23.145</v>
-      </c>
-      <c r="AK40" s="6">
-        <v>23.145</v>
-      </c>
-      <c r="AL40" s="6">
-        <v>23.15</v>
-      </c>
-      <c r="AM40" s="6">
-        <v>23.15</v>
-      </c>
-      <c r="AN40" s="6">
-        <v>23.149000000000001</v>
-      </c>
-      <c r="AO40" s="6">
-        <v>23.15</v>
-      </c>
-      <c r="AP40" s="6">
-        <v>23.15</v>
-      </c>
-      <c r="AQ40" s="6">
-        <v>23.149000000000001</v>
-      </c>
-      <c r="AR40" s="6">
-        <v>23.148</v>
-      </c>
-      <c r="AS40" s="6">
-        <v>23.151</v>
-      </c>
-      <c r="AT40" s="24">
-        <v>23.148</v>
-      </c>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AU40" s="17">
+        <v>20.928999999999998</v>
+      </c>
+      <c r="AV40" s="17">
+        <v>20.917999999999999</v>
+      </c>
+      <c r="AW40" s="17">
+        <v>20.925000000000001</v>
+      </c>
+      <c r="AX40" s="17">
+        <v>20.928999999999998</v>
+      </c>
+      <c r="AY40" s="17">
+        <v>20.922000000000001</v>
+      </c>
+      <c r="AZ40" s="17">
+        <v>20.92</v>
+      </c>
+      <c r="BA40" s="17">
+        <v>20.922999999999998</v>
+      </c>
+      <c r="BB40" s="17">
+        <v>20.919</v>
+      </c>
+      <c r="BC40" s="17">
+        <v>20.916</v>
+      </c>
+      <c r="BD40" s="17">
+        <v>20.92</v>
+      </c>
+      <c r="BE40" s="17">
+        <v>20.923999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B41" s="5">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="C41" s="1">
-        <v>24.658999999999999</v>
+        <v>20.96</v>
       </c>
       <c r="D41" s="1">
-        <v>24.658000000000001</v>
+        <v>20.963000000000001</v>
       </c>
       <c r="E41" s="1">
-        <v>24.658000000000001</v>
+        <v>20.965</v>
       </c>
       <c r="F41" s="1">
-        <v>24.658999999999999</v>
+        <v>20.968</v>
       </c>
       <c r="G41" s="1">
-        <v>24.657</v>
+        <v>20.96</v>
       </c>
       <c r="H41" s="1">
-        <v>24.655000000000001</v>
+        <v>20.954999999999998</v>
       </c>
       <c r="I41" s="1">
-        <v>24.661000000000001</v>
+        <v>20.966999999999999</v>
       </c>
       <c r="J41" s="1">
-        <v>24.658999999999999</v>
+        <v>20.959</v>
       </c>
       <c r="K41" s="1">
-        <v>24.658999999999999</v>
+        <v>20.962</v>
       </c>
       <c r="L41" s="1">
-        <v>24.66</v>
+        <v>20.963000000000001</v>
       </c>
       <c r="M41" s="1">
-        <v>24.658999999999999</v>
+        <v>20.960999999999999</v>
       </c>
       <c r="N41" s="1">
-        <v>24.666</v>
+        <v>20.969000000000001</v>
       </c>
       <c r="O41" s="1">
-        <v>24.661999999999999</v>
+        <v>20.965</v>
       </c>
       <c r="P41" s="1">
-        <v>24.66</v>
+        <v>20.960999999999999</v>
       </c>
       <c r="Q41" s="1">
-        <v>24.663</v>
+        <v>20.963000000000001</v>
       </c>
       <c r="R41" s="1">
-        <v>24.664000000000001</v>
+        <v>20.97</v>
       </c>
       <c r="S41" s="1">
-        <v>24.661999999999999</v>
+        <v>20.963999999999999</v>
       </c>
       <c r="T41" s="1">
-        <v>24.666</v>
+        <v>20.978999999999999</v>
       </c>
       <c r="U41" s="1">
-        <v>24.664000000000001</v>
+        <v>20.966000000000001</v>
       </c>
       <c r="V41" s="1">
-        <v>24.663</v>
+        <v>20.962</v>
       </c>
       <c r="W41" s="1">
-        <v>24.666</v>
+        <v>20.963999999999999</v>
       </c>
       <c r="X41" s="1">
-        <v>24.661000000000001</v>
+        <v>20.960999999999999</v>
       </c>
       <c r="Y41" s="1">
-        <v>24.664000000000001</v>
+        <v>20.963000000000001</v>
       </c>
       <c r="Z41" s="1">
-        <v>24.663</v>
+        <v>20.960999999999999</v>
       </c>
       <c r="AA41" s="6">
-        <v>23.268999999999998</v>
+        <v>20.96</v>
       </c>
       <c r="AB41" s="6">
-        <v>23.268999999999998</v>
+        <v>20.959</v>
       </c>
       <c r="AC41" s="6">
-        <v>23.271000000000001</v>
+        <v>20.962</v>
       </c>
       <c r="AD41" s="6">
-        <v>23.263999999999999</v>
+        <v>20.957000000000001</v>
       </c>
       <c r="AE41" s="6">
-        <v>23.265999999999998</v>
+        <v>20.957999999999998</v>
       </c>
       <c r="AF41" s="6">
-        <v>23.271999999999998</v>
+        <v>20.963000000000001</v>
       </c>
       <c r="AG41" s="6">
-        <v>23.265999999999998</v>
+        <v>20.957000000000001</v>
       </c>
       <c r="AH41" s="6">
-        <v>23.274999999999999</v>
+        <v>20.968</v>
       </c>
       <c r="AI41" s="6">
-        <v>23.265000000000001</v>
+        <v>20.957999999999998</v>
       </c>
       <c r="AJ41" s="6">
-        <v>23.260999999999999</v>
+        <v>20.956</v>
       </c>
       <c r="AK41" s="6">
-        <v>23.262</v>
+        <v>20.957000000000001</v>
       </c>
       <c r="AL41" s="6">
-        <v>23.265000000000001</v>
+        <v>20.957000000000001</v>
       </c>
       <c r="AM41" s="6">
-        <v>23.263999999999999</v>
+        <v>20.959</v>
       </c>
       <c r="AN41" s="6">
-        <v>23.262</v>
+        <v>20.957999999999998</v>
       </c>
       <c r="AO41" s="6">
-        <v>23.265000000000001</v>
+        <v>20.956</v>
       </c>
       <c r="AP41" s="6">
-        <v>23.265999999999998</v>
+        <v>20.957000000000001</v>
       </c>
       <c r="AQ41" s="6">
-        <v>23.260999999999999</v>
+        <v>20.956</v>
       </c>
       <c r="AR41" s="6">
-        <v>23.26</v>
+        <v>20.956</v>
       </c>
       <c r="AS41" s="6">
-        <v>23.263000000000002</v>
+        <v>20.963999999999999</v>
       </c>
       <c r="AT41" s="24">
-        <v>23.259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+        <v>20.952000000000002</v>
+      </c>
+      <c r="AU41" s="17">
+        <v>20.975999999999999</v>
+      </c>
+      <c r="AV41" s="17">
+        <v>20.968</v>
+      </c>
+      <c r="AW41" s="17">
+        <v>20.972999999999999</v>
+      </c>
+      <c r="AX41" s="17">
+        <v>20.975999999999999</v>
+      </c>
+      <c r="AY41" s="17">
+        <v>20.972000000000001</v>
+      </c>
+      <c r="AZ41" s="17">
+        <v>20.971</v>
+      </c>
+      <c r="BA41" s="17">
+        <v>20.972000000000001</v>
+      </c>
+      <c r="BB41" s="17">
+        <v>20.97</v>
+      </c>
+      <c r="BC41" s="17">
+        <v>20.969000000000001</v>
+      </c>
+      <c r="BD41" s="17">
+        <v>20.971</v>
+      </c>
+      <c r="BE41" s="17">
+        <v>20.972999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B42" s="5">
-        <v>420</v>
-      </c>
-      <c r="C42" s="1">
-        <v>25.024999999999999</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <v>25.023</v>
+        <v>21.41</v>
       </c>
       <c r="E42" s="1">
-        <v>25.021999999999998</v>
-      </c>
-      <c r="F42" s="1">
-        <v>25.024999999999999</v>
-      </c>
+        <v>21.407</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1">
-        <v>25.024000000000001</v>
+        <v>21.393999999999998</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="J42" s="1">
+        <v>21.399000000000001</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
+        <v>21.402000000000001</v>
+      </c>
+      <c r="M42" s="1">
+        <v>21.454999999999998</v>
+      </c>
+      <c r="N42" s="1">
+        <v>21.411999999999999</v>
+      </c>
+      <c r="O42" s="1">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="P42" s="1">
+        <v>21.402000000000001</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>21.404</v>
+      </c>
+      <c r="R42" s="1">
+        <v>21.405000000000001</v>
+      </c>
+      <c r="S42" s="1">
+        <v>21.405000000000001</v>
+      </c>
+      <c r="T42" s="1">
+        <v>21.416</v>
+      </c>
+      <c r="U42" s="1">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="V42" s="1">
+        <v>21.402999999999999</v>
+      </c>
+      <c r="W42" s="1">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="X42" s="1">
+        <v>21.402000000000001</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>21.404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="5">
+        <v>348</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AU43" s="17">
+        <v>21.411999999999999</v>
+      </c>
+      <c r="AV43" s="17">
+        <v>21.401</v>
+      </c>
+      <c r="AW43" s="17">
+        <v>21.41</v>
+      </c>
+      <c r="AX43" s="17">
+        <v>21.411999999999999</v>
+      </c>
+      <c r="AY43" s="17">
+        <v>21.408000000000001</v>
+      </c>
+      <c r="AZ43" s="17">
+        <v>21.407</v>
+      </c>
+      <c r="BA43" s="17">
+        <v>21.407</v>
+      </c>
+      <c r="BB43" s="17">
+        <v>21.402999999999999</v>
+      </c>
+      <c r="BC43" s="17">
+        <v>21.401</v>
+      </c>
+      <c r="BD43" s="17">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="BE43" s="17">
+        <v>21.408000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="5">
+        <v>350</v>
+      </c>
+      <c r="C44" s="1">
+        <v>21.567</v>
+      </c>
+      <c r="D44" s="1">
+        <v>21.571999999999999</v>
+      </c>
+      <c r="E44" s="1">
+        <v>21.581</v>
+      </c>
+      <c r="F44" s="1">
+        <v>21.574999999999999</v>
+      </c>
+      <c r="G44" s="1">
+        <v>21.568000000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>21.561</v>
+      </c>
+      <c r="I44" s="1">
+        <v>21.573</v>
+      </c>
+      <c r="J44" s="1">
+        <v>21.567</v>
+      </c>
+      <c r="K44" s="1">
+        <v>21.571000000000002</v>
+      </c>
+      <c r="L44" s="1">
+        <v>21.571999999999999</v>
+      </c>
+      <c r="M44" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="N44" s="1">
+        <v>21.582999999999998</v>
+      </c>
+      <c r="O44" s="1">
+        <v>21.573</v>
+      </c>
+      <c r="P44" s="1">
+        <v>21.568999999999999</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>21.573</v>
+      </c>
+      <c r="R44" s="1">
+        <v>21.576000000000001</v>
+      </c>
+      <c r="S44" s="1">
+        <v>21.574999999999999</v>
+      </c>
+      <c r="T44" s="1">
+        <v>21.59</v>
+      </c>
+      <c r="U44" s="1">
+        <v>21.576000000000001</v>
+      </c>
+      <c r="V44" s="1">
+        <v>21.567</v>
+      </c>
+      <c r="W44" s="1">
+        <v>21.574999999999999</v>
+      </c>
+      <c r="X44" s="1">
+        <v>21.564</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>21.568000000000001</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>21.568000000000001</v>
+      </c>
+      <c r="AA44" s="6">
+        <v>21.567</v>
+      </c>
+      <c r="AB44" s="6">
+        <v>21.565999999999999</v>
+      </c>
+      <c r="AC44" s="6">
+        <v>21.568000000000001</v>
+      </c>
+      <c r="AD44" s="6">
+        <v>21.562999999999999</v>
+      </c>
+      <c r="AE44" s="6">
+        <v>21.565000000000001</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>21.568999999999999</v>
+      </c>
+      <c r="AG44" s="6">
+        <v>21.562999999999999</v>
+      </c>
+      <c r="AH44" s="6">
+        <v>21.57</v>
+      </c>
+      <c r="AI44" s="6">
+        <v>21.564</v>
+      </c>
+      <c r="AJ44" s="6">
+        <v>21.559000000000001</v>
+      </c>
+      <c r="AK44" s="6">
+        <v>21.561</v>
+      </c>
+      <c r="AL44" s="6">
+        <v>21.564</v>
+      </c>
+      <c r="AM44" s="6">
+        <v>21.564</v>
+      </c>
+      <c r="AN44" s="6">
+        <v>21.561</v>
+      </c>
+      <c r="AO44" s="6">
+        <v>21.561</v>
+      </c>
+      <c r="AP44" s="6">
+        <v>21.562999999999999</v>
+      </c>
+      <c r="AQ44" s="6">
+        <v>21.562999999999999</v>
+      </c>
+      <c r="AR44" s="6">
+        <v>21.562000000000001</v>
+      </c>
+      <c r="AS44" s="6">
+        <v>21.568000000000001</v>
+      </c>
+      <c r="AT44" s="24">
+        <v>21.565000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="5">
+        <v>350</v>
+      </c>
+      <c r="C45" s="1">
+        <v>21.620999999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>21.623000000000001</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1">
+        <v>21.623000000000001</v>
+      </c>
+      <c r="G45" s="1">
+        <v>21.620999999999999</v>
+      </c>
+      <c r="H45" s="1">
+        <v>21.616</v>
+      </c>
+      <c r="I45" s="1">
+        <v>21.626999999999999</v>
+      </c>
+      <c r="J45" s="1">
+        <v>21.616</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1">
+        <v>21.622</v>
+      </c>
+      <c r="M45" s="1">
+        <v>21.622</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1">
+        <v>21.625</v>
+      </c>
+      <c r="P45" s="1">
+        <v>21.62</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>21.625</v>
+      </c>
+      <c r="R45" s="1">
+        <v>21.628</v>
+      </c>
+      <c r="S45" s="1">
+        <v>21.625</v>
+      </c>
+      <c r="T45" s="1">
+        <v>21.637</v>
+      </c>
+      <c r="U45" s="1">
+        <v>21.626000000000001</v>
+      </c>
+      <c r="V45" s="1">
+        <v>21.622</v>
+      </c>
+      <c r="W45" s="1">
+        <v>21.626000000000001</v>
+      </c>
+      <c r="X45" s="1">
+        <v>21.620999999999999</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>21.623999999999999</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>21.62</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>21.62</v>
+      </c>
+      <c r="AB45" s="6">
+        <v>21.619</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>21.622</v>
+      </c>
+      <c r="AD45" s="6">
+        <v>21.617999999999999</v>
+      </c>
+      <c r="AE45" s="6">
+        <v>21.617999999999999</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>21.623999999999999</v>
+      </c>
+      <c r="AG45" s="6">
+        <v>21.617999999999999</v>
+      </c>
+      <c r="AH45" s="6">
+        <v>21.625</v>
+      </c>
+      <c r="AI45" s="6">
+        <v>21.619</v>
+      </c>
+      <c r="AJ45" s="6">
+        <v>21.614999999999998</v>
+      </c>
+      <c r="AK45" s="6">
+        <v>21.616</v>
+      </c>
+      <c r="AL45" s="6">
+        <v>21.617000000000001</v>
+      </c>
+      <c r="AM45" s="6">
+        <v>21.619</v>
+      </c>
+      <c r="AN45" s="6">
+        <v>21.617000000000001</v>
+      </c>
+      <c r="AO45" s="6">
+        <v>21.616</v>
+      </c>
+      <c r="AP45" s="6">
+        <v>21.617000000000001</v>
+      </c>
+      <c r="AQ45" s="6">
+        <v>21.617000000000001</v>
+      </c>
+      <c r="AR45" s="6">
+        <v>21.617000000000001</v>
+      </c>
+      <c r="AS45" s="6">
+        <v>21.623000000000001</v>
+      </c>
+      <c r="AT45" s="24">
+        <v>21.614999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="5">
+        <v>352</v>
+      </c>
+      <c r="C46" s="1">
+        <v>21.774999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>21.792000000000002</v>
+      </c>
+      <c r="E46" s="1">
+        <v>21.803000000000001</v>
+      </c>
+      <c r="F46" s="1">
+        <v>21.805</v>
+      </c>
+      <c r="G46" s="1">
+        <v>21.786999999999999</v>
+      </c>
+      <c r="H46" s="1">
+        <v>21.774999999999999</v>
+      </c>
+      <c r="I46" s="1">
+        <v>21.803999999999998</v>
+      </c>
+      <c r="J46" s="1">
+        <v>21.777000000000001</v>
+      </c>
+      <c r="K46" s="1">
+        <v>21.795999999999999</v>
+      </c>
+      <c r="L46" s="1">
+        <v>21.79</v>
+      </c>
+      <c r="M46" s="1">
+        <v>21.788</v>
+      </c>
+      <c r="N46" s="1">
+        <v>21.802</v>
+      </c>
+      <c r="O46" s="1">
+        <v>21.797000000000001</v>
+      </c>
+      <c r="P46" s="1">
+        <v>21.774999999999999</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>21.783000000000001</v>
+      </c>
+      <c r="R46" s="1">
+        <v>21.795000000000002</v>
+      </c>
+      <c r="S46" s="1">
+        <v>21.789000000000001</v>
+      </c>
+      <c r="T46" s="1">
+        <v>21.821000000000002</v>
+      </c>
+      <c r="U46" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="V46" s="1">
+        <v>21.768999999999998</v>
+      </c>
+      <c r="W46" s="1">
+        <v>21.800999999999998</v>
+      </c>
+      <c r="X46" s="1">
+        <v>21.762</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>21.777000000000001</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>21.774000000000001</v>
+      </c>
+      <c r="AA46" s="6">
+        <v>21.77</v>
+      </c>
+      <c r="AB46" s="6">
+        <v>21.77</v>
+      </c>
+      <c r="AC46" s="6">
+        <v>21.773</v>
+      </c>
+      <c r="AD46" s="6">
+        <v>21.763999999999999</v>
+      </c>
+      <c r="AE46" s="6">
+        <v>21.77</v>
+      </c>
+      <c r="AF46" s="6">
+        <v>21.771000000000001</v>
+      </c>
+      <c r="AG46" s="6">
+        <v>21.763000000000002</v>
+      </c>
+      <c r="AH46" s="6">
+        <v>21.776</v>
+      </c>
+      <c r="AI46" s="6">
+        <v>21.763999999999999</v>
+      </c>
+      <c r="AJ46" s="6">
+        <v>21.754000000000001</v>
+      </c>
+      <c r="AK46" s="6">
+        <v>21.757999999999999</v>
+      </c>
+      <c r="AL46" s="6">
+        <v>21.763000000000002</v>
+      </c>
+      <c r="AM46" s="6">
+        <v>21.766999999999999</v>
+      </c>
+      <c r="AN46" s="6">
+        <v>21.759</v>
+      </c>
+      <c r="AO46" s="6">
+        <v>21.762</v>
+      </c>
+      <c r="AP46" s="6">
+        <v>21.765999999999998</v>
+      </c>
+      <c r="AQ46" s="6">
+        <v>21.762</v>
+      </c>
+      <c r="AR46" s="6">
+        <v>21.768999999999998</v>
+      </c>
+      <c r="AS46" s="6">
+        <v>21.774999999999999</v>
+      </c>
+      <c r="AT46" s="24">
+        <v>21.765999999999998</v>
+      </c>
+      <c r="AU46" s="17">
+        <v>21.808</v>
+      </c>
+      <c r="AV46" s="17">
+        <v>21.777000000000001</v>
+      </c>
+      <c r="AW46" s="17">
+        <v>21.797999999999998</v>
+      </c>
+      <c r="AX46" s="17">
+        <v>21.808</v>
+      </c>
+      <c r="AY46" s="17">
+        <v>21.786999999999999</v>
+      </c>
+      <c r="AZ46" s="17">
+        <v>21.79</v>
+      </c>
+      <c r="BA46" s="17">
+        <v>21.783999999999999</v>
+      </c>
+      <c r="BB46" s="17">
+        <v>21.783000000000001</v>
+      </c>
+      <c r="BC46" s="17">
+        <v>21.777000000000001</v>
+      </c>
+      <c r="BD46" s="17">
+        <v>21.795999999999999</v>
+      </c>
+      <c r="BE46" s="17">
+        <v>21.792999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="18">
+        <v>364</v>
+      </c>
+      <c r="AA47" s="6">
+        <v>22.338999999999999</v>
+      </c>
+      <c r="AB47" s="6">
+        <v>22.34</v>
+      </c>
+      <c r="AC47" s="6">
+        <v>22.341000000000001</v>
+      </c>
+      <c r="AD47" s="6">
+        <v>22.338999999999999</v>
+      </c>
+      <c r="AE47" s="6">
+        <v>22.338000000000001</v>
+      </c>
+      <c r="AF47" s="6">
+        <v>22.344000000000001</v>
+      </c>
+      <c r="AG47" s="6">
+        <v>22.34</v>
+      </c>
+      <c r="AH47" s="6">
+        <v>22.344000000000001</v>
+      </c>
+      <c r="AI47" s="6">
+        <v>22.338999999999999</v>
+      </c>
+      <c r="AJ47" s="6">
+        <v>22.338999999999999</v>
+      </c>
+      <c r="AK47" s="6">
+        <v>22.338000000000001</v>
+      </c>
+      <c r="AL47" s="6">
+        <v>22.338000000000001</v>
+      </c>
+      <c r="AM47" s="6">
+        <v>22.338999999999999</v>
+      </c>
+      <c r="AN47" s="6">
+        <v>22.338000000000001</v>
+      </c>
+      <c r="AO47" s="6">
+        <v>22.337</v>
+      </c>
+      <c r="AP47" s="6">
+        <v>22.338999999999999</v>
+      </c>
+      <c r="AQ47" s="6">
+        <v>22.338000000000001</v>
+      </c>
+      <c r="AR47" s="6">
+        <v>22.335000000000001</v>
+      </c>
+      <c r="AS47" s="6">
+        <v>22.338999999999999</v>
+      </c>
+      <c r="AT47" s="24">
+        <v>22.332999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="5">
+        <v>366</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
+        <v>22.405999999999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>22.404</v>
+      </c>
+      <c r="F48" s="1">
+        <v>22.408000000000001</v>
+      </c>
+      <c r="G48" s="1">
+        <v>22.411999999999999</v>
+      </c>
+      <c r="H48" s="1">
+        <v>22.407</v>
+      </c>
+      <c r="I48" s="1">
+        <v>22.402999999999999</v>
+      </c>
+      <c r="J48" s="1">
+        <v>22.408999999999999</v>
+      </c>
+      <c r="K48" s="1">
+        <v>22.414000000000001</v>
+      </c>
+      <c r="L48" s="1">
+        <v>22.401</v>
+      </c>
+      <c r="M48" s="1">
+        <v>22.405999999999999</v>
+      </c>
+      <c r="N48" s="1">
+        <v>22.408000000000001</v>
+      </c>
+      <c r="O48" s="1">
+        <v>22.404</v>
+      </c>
+      <c r="P48" s="1">
+        <v>22.402000000000001</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>22.405999999999999</v>
+      </c>
+      <c r="R48" s="1">
+        <v>22.411999999999999</v>
+      </c>
+      <c r="S48" s="1">
+        <v>22.402999999999999</v>
+      </c>
+      <c r="T48" s="1">
+        <v>22.41</v>
+      </c>
+      <c r="U48" s="1">
+        <v>22.417000000000002</v>
+      </c>
+      <c r="V48" s="1">
+        <v>22.405000000000001</v>
+      </c>
+      <c r="W48" s="1">
+        <v>22.405000000000001</v>
+      </c>
+      <c r="X48" s="1">
+        <v>22.405999999999999</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>22.408000000000001</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>22.41</v>
+      </c>
+      <c r="AA48" s="6">
+        <v>22.521000000000001</v>
+      </c>
+      <c r="AB48" s="6">
+        <v>22.521000000000001</v>
+      </c>
+      <c r="AC48" s="6">
+        <v>22.523</v>
+      </c>
+      <c r="AD48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AE48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AF48" s="6">
+        <v>22.526</v>
+      </c>
+      <c r="AG48" s="6">
+        <v>22.521000000000001</v>
+      </c>
+      <c r="AH48" s="6">
+        <v>22.524999999999999</v>
+      </c>
+      <c r="AI48" s="6">
+        <v>22.521000000000001</v>
+      </c>
+      <c r="AJ48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AK48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AL48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AM48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AN48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AO48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AP48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AQ48" s="6">
+        <v>22.518999999999998</v>
+      </c>
+      <c r="AR48" s="6">
+        <v>22.516999999999999</v>
+      </c>
+      <c r="AS48" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AT48" s="24">
+        <v>22.515000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5">
+        <v>368</v>
+      </c>
+      <c r="C49" s="1">
+        <v>22.597999999999999</v>
+      </c>
+      <c r="D49" s="1">
+        <v>22.599</v>
+      </c>
+      <c r="E49" s="1">
+        <v>22.606000000000002</v>
+      </c>
+      <c r="F49" s="1">
+        <v>22.599</v>
+      </c>
+      <c r="G49" s="1">
+        <v>22.606000000000002</v>
+      </c>
+      <c r="H49" s="1">
+        <v>22.594999999999999</v>
+      </c>
+      <c r="I49" s="1">
+        <v>22.606000000000002</v>
+      </c>
+      <c r="J49" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="K49" s="1">
+        <v>22.602</v>
+      </c>
+      <c r="L49" s="1">
+        <v>22.597999999999999</v>
+      </c>
+      <c r="M49" s="1">
+        <v>22.597999999999999</v>
+      </c>
+      <c r="N49" s="1">
+        <v>22.606000000000002</v>
+      </c>
+      <c r="O49" s="1">
+        <v>22.600999999999999</v>
+      </c>
+      <c r="P49" s="1">
+        <v>22.599</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>22.602</v>
+      </c>
+      <c r="R49" s="1">
+        <v>22.608000000000001</v>
+      </c>
+      <c r="S49" s="1">
+        <v>22.597999999999999</v>
+      </c>
+      <c r="T49" s="1">
+        <v>22.608000000000001</v>
+      </c>
+      <c r="U49" s="1">
+        <v>22.605</v>
+      </c>
+      <c r="V49" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="W49" s="1">
+        <v>22.603999999999999</v>
+      </c>
+      <c r="X49" s="1">
+        <v>22.597999999999999</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>22.600999999999999</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="5">
+        <v>378</v>
+      </c>
+      <c r="C50" s="1">
+        <v>23.09</v>
+      </c>
+      <c r="D50" s="1">
+        <v>23.091000000000001</v>
+      </c>
+      <c r="E50" s="1">
+        <v>23.091000000000001</v>
+      </c>
+      <c r="F50" s="1">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <v>23.091000000000001</v>
+      </c>
+      <c r="H50" s="1">
+        <v>23.087</v>
+      </c>
+      <c r="I50" s="1">
+        <v>23.093</v>
+      </c>
+      <c r="J50" s="1">
+        <v>23.088999999999999</v>
+      </c>
+      <c r="K50" s="1">
+        <v>23.091999999999999</v>
+      </c>
+      <c r="L50" s="1">
+        <v>23.091999999999999</v>
+      </c>
+      <c r="M50" s="1">
+        <v>23.09</v>
+      </c>
+      <c r="N50" s="1">
+        <v>23.099</v>
+      </c>
+      <c r="O50" s="1">
+        <v>23.094999999999999</v>
+      </c>
+      <c r="P50" s="1">
+        <v>23.093</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>23.094999999999999</v>
+      </c>
+      <c r="R50" s="1">
+        <v>23.097000000000001</v>
+      </c>
+      <c r="S50" s="1">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="T50" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="U50" s="1">
+        <v>23.096</v>
+      </c>
+      <c r="V50" s="1">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="W50" s="1">
+        <v>23.097999999999999</v>
+      </c>
+      <c r="X50" s="1">
+        <v>23.091999999999999</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="AU50" s="17">
+        <v>23.056000000000001</v>
+      </c>
+      <c r="AV50" s="17">
+        <v>23.05</v>
+      </c>
+      <c r="AW50" s="17">
+        <v>23.055</v>
+      </c>
+      <c r="AX50" s="17">
+        <v>23.056000000000001</v>
+      </c>
+      <c r="AY50" s="17">
+        <v>23.053999999999998</v>
+      </c>
+      <c r="AZ50" s="17">
+        <v>23.053999999999998</v>
+      </c>
+      <c r="BA50" s="17">
+        <v>23.052</v>
+      </c>
+      <c r="BB50" s="17">
+        <v>23.048999999999999</v>
+      </c>
+      <c r="BC50" s="17">
+        <v>23.048999999999999</v>
+      </c>
+      <c r="BD50" s="17">
+        <v>23.050999999999998</v>
+      </c>
+      <c r="BE50" s="17">
+        <v>23.053999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="5">
+        <v>380</v>
+      </c>
+      <c r="C51" s="1">
+        <v>23.262</v>
+      </c>
+      <c r="D51" s="1">
+        <v>23.265000000000001</v>
+      </c>
+      <c r="E51" s="1">
+        <v>23.265999999999998</v>
+      </c>
+      <c r="F51" s="1">
+        <v>23.268000000000001</v>
+      </c>
+      <c r="G51" s="1">
+        <v>23.265999999999998</v>
+      </c>
+      <c r="H51" s="1">
+        <v>23.259</v>
+      </c>
+      <c r="I51" s="1">
+        <v>23.271999999999998</v>
+      </c>
+      <c r="J51" s="1">
+        <v>23.262</v>
+      </c>
+      <c r="K51" s="1">
+        <v>23.265000000000001</v>
+      </c>
+      <c r="L51" s="1">
+        <v>23.271000000000001</v>
+      </c>
+      <c r="M51" s="1">
+        <v>23.263000000000002</v>
+      </c>
+      <c r="N51" s="1">
+        <v>23.271999999999998</v>
+      </c>
+      <c r="O51" s="1">
+        <v>23.266999999999999</v>
+      </c>
+      <c r="P51" s="1">
+        <v>23.263999999999999</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>23.266999999999999</v>
+      </c>
+      <c r="R51" s="1">
+        <v>23.271000000000001</v>
+      </c>
+      <c r="S51" s="1">
+        <v>23.265999999999998</v>
+      </c>
+      <c r="T51" s="1">
+        <v>23.274000000000001</v>
+      </c>
+      <c r="U51" s="1">
+        <v>23.268999999999998</v>
+      </c>
+      <c r="V51" s="1">
+        <v>23.265000000000001</v>
+      </c>
+      <c r="W51" s="1">
+        <v>23.277999999999999</v>
+      </c>
+      <c r="X51" s="1">
+        <v>23.262</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>23.266999999999999</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>23.265000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="5">
+        <v>394</v>
+      </c>
+      <c r="C52" s="1">
+        <v>23.343</v>
+      </c>
+      <c r="D52" s="1">
+        <v>23.338999999999999</v>
+      </c>
+      <c r="E52" s="1">
+        <v>23.335999999999999</v>
+      </c>
+      <c r="F52" s="1">
+        <v>23.346</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1">
+        <v>23.338000000000001</v>
+      </c>
+      <c r="I52" s="1">
+        <v>23.338999999999999</v>
+      </c>
+      <c r="J52" s="1">
+        <v>23.341999999999999</v>
+      </c>
+      <c r="K52" s="1">
+        <v>23.347000000000001</v>
+      </c>
+      <c r="L52" s="1">
+        <v>23.338999999999999</v>
+      </c>
+      <c r="M52" s="1">
+        <v>23.341999999999999</v>
+      </c>
+      <c r="N52" s="1">
+        <v>23.341999999999999</v>
+      </c>
+      <c r="O52" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="P52" s="1">
+        <v>23.344999999999999</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>23.347000000000001</v>
+      </c>
+      <c r="R52" s="1">
+        <v>23.346</v>
+      </c>
+      <c r="S52" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="T52" s="1">
+        <v>23.344000000000001</v>
+      </c>
+      <c r="U52" s="1">
+        <v>23.347999999999999</v>
+      </c>
+      <c r="V52" s="1">
+        <v>23.344000000000001</v>
+      </c>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1">
+        <v>23.343</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>23.344000000000001</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>23.343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="5">
+        <v>396</v>
+      </c>
+      <c r="C53" s="1">
+        <v>24.047000000000001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>24.045000000000002</v>
+      </c>
+      <c r="E53" s="1">
+        <v>24.045000000000002</v>
+      </c>
+      <c r="F53" s="1">
+        <v>24.045999999999999</v>
+      </c>
+      <c r="G53" s="1">
+        <v>24.045999999999999</v>
+      </c>
+      <c r="H53" s="1">
+        <v>24.044</v>
+      </c>
+      <c r="I53" s="1">
+        <v>24.045999999999999</v>
+      </c>
+      <c r="J53" s="1">
+        <v>24.047000000000001</v>
+      </c>
+      <c r="K53" s="1">
+        <v>24.047000000000001</v>
+      </c>
+      <c r="L53" s="1">
+        <v>24.047000000000001</v>
+      </c>
+      <c r="M53" s="1">
+        <v>24.047000000000001</v>
+      </c>
+      <c r="N53" s="1">
+        <v>24.050999999999998</v>
+      </c>
+      <c r="O53" s="1">
+        <v>24.05</v>
+      </c>
+      <c r="P53" s="1">
+        <v>24.048999999999999</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>24.050999999999998</v>
+      </c>
+      <c r="R53" s="1">
+        <v>24.052</v>
+      </c>
+      <c r="S53" s="1">
+        <v>24.048999999999999</v>
+      </c>
+      <c r="T53" s="1">
+        <v>24.053000000000001</v>
+      </c>
+      <c r="U53" s="1">
+        <v>24.052</v>
+      </c>
+      <c r="V53" s="1">
+        <v>24.052</v>
+      </c>
+      <c r="W53" s="1">
+        <v>24.052</v>
+      </c>
+      <c r="X53" s="1">
+        <v>24.050999999999998</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>24.050999999999998</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>24.050999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="18">
+        <v>406</v>
+      </c>
+      <c r="Y54" s="1"/>
+      <c r="AA54" s="6">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="AB54" s="6">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="AC54" s="6">
+        <v>23.097000000000001</v>
+      </c>
+      <c r="AD54" s="6">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="AE54" s="6">
+        <v>23.096</v>
+      </c>
+      <c r="AF54" s="6">
+        <v>23.099</v>
+      </c>
+      <c r="AG54" s="6">
+        <v>23.093</v>
+      </c>
+      <c r="AH54" s="6">
+        <v>23.096</v>
+      </c>
+      <c r="AI54" s="6">
+        <v>23.094999999999999</v>
+      </c>
+      <c r="AJ54" s="6">
+        <v>23.09</v>
+      </c>
+      <c r="AK54" s="6">
+        <v>23.091999999999999</v>
+      </c>
+      <c r="AL54" s="6">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="AM54" s="6">
+        <v>23.093</v>
+      </c>
+      <c r="AN54" s="6">
+        <v>23.09</v>
+      </c>
+      <c r="AO54" s="6">
+        <v>23.091000000000001</v>
+      </c>
+      <c r="AP54" s="6">
+        <v>23.094000000000001</v>
+      </c>
+      <c r="AQ54" s="6">
+        <v>23.093</v>
+      </c>
+      <c r="AR54" s="6">
+        <v>23.091000000000001</v>
+      </c>
+      <c r="AS54" s="6">
+        <v>23.093</v>
+      </c>
+      <c r="AT54" s="24">
+        <v>23.096</v>
+      </c>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+    </row>
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="18">
+        <v>406</v>
+      </c>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="6">
+        <v>23.155000000000001</v>
+      </c>
+      <c r="AB55" s="6">
+        <v>23.152999999999999</v>
+      </c>
+      <c r="AC55" s="6">
+        <v>23.155000000000001</v>
+      </c>
+      <c r="AD55" s="6">
+        <v>23.15</v>
+      </c>
+      <c r="AE55" s="6">
+        <v>23.151</v>
+      </c>
+      <c r="AF55" s="6">
+        <v>23.155999999999999</v>
+      </c>
+      <c r="AG55" s="6">
+        <v>23.151</v>
+      </c>
+      <c r="AH55" s="6">
+        <v>23.152999999999999</v>
+      </c>
+      <c r="AI55" s="6">
+        <v>23.152000000000001</v>
+      </c>
+      <c r="AJ55" s="6">
+        <v>23.145</v>
+      </c>
+      <c r="AK55" s="6">
+        <v>23.145</v>
+      </c>
+      <c r="AL55" s="6">
+        <v>23.15</v>
+      </c>
+      <c r="AM55" s="6">
+        <v>23.15</v>
+      </c>
+      <c r="AN55" s="6">
+        <v>23.149000000000001</v>
+      </c>
+      <c r="AO55" s="6">
+        <v>23.15</v>
+      </c>
+      <c r="AP55" s="6">
+        <v>23.15</v>
+      </c>
+      <c r="AQ55" s="6">
+        <v>23.149000000000001</v>
+      </c>
+      <c r="AR55" s="6">
+        <v>23.148</v>
+      </c>
+      <c r="AS55" s="6">
+        <v>23.151</v>
+      </c>
+      <c r="AT55" s="24">
+        <v>23.148</v>
+      </c>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+    </row>
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="5">
+        <v>408</v>
+      </c>
+      <c r="C56" s="1">
+        <v>24.658999999999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>24.658000000000001</v>
+      </c>
+      <c r="E56" s="1">
+        <v>24.658000000000001</v>
+      </c>
+      <c r="F56" s="1">
+        <v>24.658999999999999</v>
+      </c>
+      <c r="G56" s="1">
+        <v>24.657</v>
+      </c>
+      <c r="H56" s="1">
+        <v>24.655000000000001</v>
+      </c>
+      <c r="I56" s="1">
+        <v>24.661000000000001</v>
+      </c>
+      <c r="J56" s="1">
+        <v>24.658999999999999</v>
+      </c>
+      <c r="K56" s="1">
+        <v>24.658999999999999</v>
+      </c>
+      <c r="L56" s="1">
+        <v>24.66</v>
+      </c>
+      <c r="M56" s="1">
+        <v>24.658999999999999</v>
+      </c>
+      <c r="N56" s="1">
+        <v>24.666</v>
+      </c>
+      <c r="O56" s="1">
+        <v>24.661999999999999</v>
+      </c>
+      <c r="P56" s="1">
+        <v>24.66</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>24.663</v>
+      </c>
+      <c r="R56" s="1">
+        <v>24.664000000000001</v>
+      </c>
+      <c r="S56" s="1">
+        <v>24.661999999999999</v>
+      </c>
+      <c r="T56" s="1">
+        <v>24.666</v>
+      </c>
+      <c r="U56" s="1">
+        <v>24.664000000000001</v>
+      </c>
+      <c r="V56" s="1">
+        <v>24.663</v>
+      </c>
+      <c r="W56" s="1">
+        <v>24.666</v>
+      </c>
+      <c r="X56" s="1">
+        <v>24.661000000000001</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>24.664000000000001</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>24.663</v>
+      </c>
+      <c r="AA56" s="6">
+        <v>23.268999999999998</v>
+      </c>
+      <c r="AB56" s="6">
+        <v>23.268999999999998</v>
+      </c>
+      <c r="AC56" s="6">
+        <v>23.271000000000001</v>
+      </c>
+      <c r="AD56" s="6">
+        <v>23.263999999999999</v>
+      </c>
+      <c r="AE56" s="6">
+        <v>23.265999999999998</v>
+      </c>
+      <c r="AF56" s="6">
+        <v>23.271999999999998</v>
+      </c>
+      <c r="AG56" s="6">
+        <v>23.265999999999998</v>
+      </c>
+      <c r="AH56" s="6">
+        <v>23.274999999999999</v>
+      </c>
+      <c r="AI56" s="6">
+        <v>23.265000000000001</v>
+      </c>
+      <c r="AJ56" s="6">
+        <v>23.260999999999999</v>
+      </c>
+      <c r="AK56" s="6">
+        <v>23.262</v>
+      </c>
+      <c r="AL56" s="6">
+        <v>23.265000000000001</v>
+      </c>
+      <c r="AM56" s="6">
+        <v>23.263999999999999</v>
+      </c>
+      <c r="AN56" s="6">
+        <v>23.262</v>
+      </c>
+      <c r="AO56" s="6">
+        <v>23.265000000000001</v>
+      </c>
+      <c r="AP56" s="6">
+        <v>23.265999999999998</v>
+      </c>
+      <c r="AQ56" s="6">
+        <v>23.260999999999999</v>
+      </c>
+      <c r="AR56" s="6">
+        <v>23.26</v>
+      </c>
+      <c r="AS56" s="6">
+        <v>23.263000000000002</v>
+      </c>
+      <c r="AT56" s="24">
+        <v>23.259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="5">
+        <v>420</v>
+      </c>
+      <c r="C57" s="1">
+        <v>25.024999999999999</v>
+      </c>
+      <c r="D57" s="1">
         <v>25.023</v>
       </c>
-      <c r="J42" s="1">
+      <c r="E57" s="1">
+        <v>25.021999999999998</v>
+      </c>
+      <c r="F57" s="1">
         <v>25.024999999999999</v>
       </c>
-      <c r="K42" s="1">
+      <c r="G57" s="1">
+        <v>25.024000000000001</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1">
+        <v>25.023</v>
+      </c>
+      <c r="J57" s="1">
+        <v>25.024999999999999</v>
+      </c>
+      <c r="K57" s="1">
         <v>25.026</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L57" s="1">
         <v>25.027000000000001</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M57" s="1">
         <v>25.027000000000001</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N57" s="1">
         <v>25.029</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O57" s="1">
         <v>25.026</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P57" s="1">
         <v>25.027000000000001</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q57" s="1">
         <v>25.03</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R57" s="1">
         <v>25.029</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S57" s="1">
         <v>25.027000000000001</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T57" s="1">
         <v>25.029</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U57" s="1">
         <v>25.030999999999999</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V57" s="1">
         <v>25.03</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W57" s="1">
         <v>25.024999999999999</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X57" s="1">
         <v>25.029</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Y57" s="1">
         <v>25.029</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="Z57" s="1">
         <v>25.03</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B58" s="18">
         <v>424</v>
       </c>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6">
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6">
         <v>23.344000000000001</v>
       </c>
-      <c r="AC43" s="6">
+      <c r="AC58" s="6">
         <v>23.346</v>
       </c>
-      <c r="AD43" s="6">
+      <c r="AD58" s="6">
         <v>23.341999999999999</v>
       </c>
-      <c r="AE43" s="6">
+      <c r="AE58" s="6">
         <v>23.341000000000001</v>
       </c>
-      <c r="AF43" s="6">
+      <c r="AF58" s="6">
         <v>23.347999999999999</v>
       </c>
-      <c r="AG43" s="6">
+      <c r="AG58" s="6">
         <v>23.343</v>
       </c>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6">
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6">
         <v>23.343</v>
       </c>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
-      <c r="AL43" s="6">
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6">
         <v>23.341000000000001</v>
       </c>
-      <c r="AM43" s="6">
+      <c r="AM58" s="6">
         <v>23.341999999999999</v>
       </c>
-      <c r="AN43" s="6"/>
-      <c r="AO43" s="6"/>
-      <c r="AP43" s="6">
+      <c r="AN58" s="6"/>
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="6">
         <v>23.341000000000001</v>
       </c>
-      <c r="AQ43" s="6">
+      <c r="AQ58" s="6">
         <v>23.338999999999999</v>
       </c>
-      <c r="AR43" s="6">
+      <c r="AR58" s="6">
         <v>23.338000000000001</v>
       </c>
-      <c r="AS43" s="6">
+      <c r="AS58" s="6">
         <v>23.341000000000001</v>
       </c>
-      <c r="AT43" s="24">
+      <c r="AT58" s="24">
         <v>23.335000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B59" s="5">
         <v>434</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C59" s="1">
         <v>25.837</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D59" s="1">
         <v>25.835000000000001</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E59" s="1">
         <v>25.835000000000001</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F59" s="1">
         <v>25.835999999999999</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G59" s="1">
         <v>25.835000000000001</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H59" s="1">
         <v>25.834</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I59" s="1">
         <v>25.838000000000001</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J59" s="1">
         <v>25.838000000000001</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K59" s="1">
         <v>25.838000000000001</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L59" s="1">
         <v>25.838999999999999</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M59" s="1">
         <v>25.838000000000001</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N59" s="1">
         <v>25.843</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O59" s="1">
         <v>25.84</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P59" s="1">
         <v>25.84</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q59" s="1">
         <v>25.841999999999999</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R59" s="1">
         <v>25.843</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S59" s="1">
         <v>25.841000000000001</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T59" s="1">
         <v>25.843</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U59" s="1">
         <v>25.841000000000001</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V59" s="1">
         <v>25.841000000000001</v>
       </c>
-      <c r="W44" s="1">
+      <c r="W59" s="1">
         <v>25.841000000000001</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X59" s="1">
         <v>25.841999999999999</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="Y59" s="1">
         <v>25.841999999999999</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="Z59" s="1">
         <v>25.841999999999999</v>
       </c>
-      <c r="AA44" s="6">
+      <c r="AA59" s="6">
         <v>24.515999999999998</v>
       </c>
-      <c r="AB44" s="6">
+      <c r="AB59" s="6">
         <v>24.513999999999999</v>
       </c>
-      <c r="AC44" s="6">
+      <c r="AC59" s="6">
         <v>24.515000000000001</v>
       </c>
-      <c r="AD44" s="6">
+      <c r="AD59" s="6">
         <v>24.515000000000001</v>
       </c>
-      <c r="AE44" s="6">
+      <c r="AE59" s="6">
         <v>24.515000000000001</v>
       </c>
-      <c r="AF44" s="6">
+      <c r="AF59" s="6">
         <v>24.52</v>
       </c>
-      <c r="AG44" s="6">
+      <c r="AG59" s="6">
         <v>24.515999999999998</v>
       </c>
-      <c r="AH44" s="6">
+      <c r="AH59" s="6">
         <v>24.515000000000001</v>
       </c>
-      <c r="AI44" s="6">
+      <c r="AI59" s="6">
         <v>24.515000000000001</v>
       </c>
-      <c r="AJ44" s="6">
+      <c r="AJ59" s="6">
         <v>24.510999999999999</v>
       </c>
-      <c r="AK44" s="6">
+      <c r="AK59" s="6">
         <v>24.512</v>
       </c>
-      <c r="AL44" s="6">
+      <c r="AL59" s="6">
         <v>24.513999999999999</v>
       </c>
-      <c r="AM44" s="6">
+      <c r="AM59" s="6">
         <v>24.513000000000002</v>
       </c>
-      <c r="AN44" s="6">
+      <c r="AN59" s="6">
         <v>24.510999999999999</v>
       </c>
-      <c r="AO44" s="6">
+      <c r="AO59" s="6">
         <v>24.513000000000002</v>
       </c>
-      <c r="AP44" s="6">
+      <c r="AP59" s="6">
         <v>24.515000000000001</v>
       </c>
-      <c r="AQ44" s="6">
+      <c r="AQ59" s="6">
         <v>24.513000000000002</v>
       </c>
-      <c r="AR44" s="6">
+      <c r="AR59" s="6">
         <v>24.51</v>
       </c>
-      <c r="AS44" s="6">
+      <c r="AS59" s="6">
         <v>24.510999999999999</v>
       </c>
-      <c r="AT44" s="24">
+      <c r="AT59" s="24">
         <v>24.513000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B60" s="18">
         <v>434</v>
       </c>
-      <c r="AA45" s="6">
+      <c r="AA60" s="6">
         <v>24.567</v>
       </c>
-      <c r="AB45" s="6">
+      <c r="AB60" s="6">
         <v>24.565000000000001</v>
       </c>
-      <c r="AC45" s="6">
+      <c r="AC60" s="6">
         <v>24.567</v>
       </c>
-      <c r="AD45" s="6">
+      <c r="AD60" s="6">
         <v>24.565999999999999</v>
       </c>
-      <c r="AE45" s="6">
+      <c r="AE60" s="6">
         <v>24.565999999999999</v>
       </c>
-      <c r="AF45" s="6">
+      <c r="AF60" s="6">
         <v>24.571000000000002</v>
       </c>
-      <c r="AG45" s="6">
+      <c r="AG60" s="6">
         <v>24.567</v>
       </c>
-      <c r="AH45" s="6">
+      <c r="AH60" s="6">
         <v>24.567</v>
       </c>
-      <c r="AI45" s="6">
+      <c r="AI60" s="6">
         <v>24.567</v>
       </c>
-      <c r="AJ45" s="6">
+      <c r="AJ60" s="6">
         <v>24.564</v>
       </c>
-      <c r="AK45" s="6">
+      <c r="AK60" s="6">
         <v>24.564</v>
       </c>
-      <c r="AL45" s="6">
+      <c r="AL60" s="6">
         <v>24.565000000000001</v>
       </c>
-      <c r="AM45" s="6">
+      <c r="AM60" s="6">
         <v>24.565000000000001</v>
       </c>
-      <c r="AN45" s="6">
+      <c r="AN60" s="6">
         <v>24.564</v>
       </c>
-      <c r="AO45" s="6">
+      <c r="AO60" s="6">
         <v>24.565000000000001</v>
       </c>
-      <c r="AP45" s="6">
+      <c r="AP60" s="6">
         <v>24.565999999999999</v>
       </c>
-      <c r="AQ45" s="6">
+      <c r="AQ60" s="6">
         <v>24.565000000000001</v>
       </c>
-      <c r="AR45" s="6">
+      <c r="AR60" s="6">
         <v>24.561</v>
       </c>
-      <c r="AS45" s="6">
+      <c r="AS60" s="6">
         <v>24.562999999999999</v>
       </c>
-      <c r="AT45" s="24">
+      <c r="AT60" s="24">
         <v>24.561</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B61" s="18">
         <v>436</v>
       </c>
-      <c r="AA46" s="6">
+      <c r="AA61" s="6">
         <v>24.66</v>
       </c>
-      <c r="AB46" s="6">
+      <c r="AB61" s="6">
         <v>24.658999999999999</v>
       </c>
-      <c r="AC46" s="6">
+      <c r="AC61" s="6">
         <v>24.66</v>
       </c>
-      <c r="AD46" s="6">
+      <c r="AD61" s="6">
         <v>24.658999999999999</v>
       </c>
-      <c r="AE46" s="6">
+      <c r="AE61" s="6">
         <v>24.658000000000001</v>
       </c>
-      <c r="AF46" s="6">
+      <c r="AF61" s="6">
         <v>24.664000000000001</v>
       </c>
-      <c r="AG46" s="6">
+      <c r="AG61" s="6">
         <v>24.66</v>
       </c>
-      <c r="AH46" s="6">
+      <c r="AH61" s="6">
         <v>24.661999999999999</v>
       </c>
-      <c r="AI46" s="6">
+      <c r="AI61" s="6">
         <v>24.658999999999999</v>
       </c>
-      <c r="AJ46" s="6">
+      <c r="AJ61" s="6">
         <v>24.658999999999999</v>
       </c>
-      <c r="AK46" s="6">
+      <c r="AK61" s="6">
         <v>24.658000000000001</v>
       </c>
-      <c r="AL46" s="6">
+      <c r="AL61" s="6">
         <v>24.658000000000001</v>
       </c>
-      <c r="AM46" s="6">
+      <c r="AM61" s="6">
         <v>24.658000000000001</v>
       </c>
-      <c r="AN46" s="6">
+      <c r="AN61" s="6">
         <v>24.658000000000001</v>
       </c>
-      <c r="AO46" s="6">
+      <c r="AO61" s="6">
         <v>24.658999999999999</v>
       </c>
-      <c r="AP46" s="6">
+      <c r="AP61" s="6">
         <v>24.658999999999999</v>
       </c>
-      <c r="AQ46" s="6">
+      <c r="AQ61" s="6">
         <v>24.655999999999999</v>
       </c>
-      <c r="AR46" s="6">
+      <c r="AR61" s="6">
         <v>24.654</v>
       </c>
-      <c r="AS46" s="6">
+      <c r="AS61" s="6">
         <v>24.655000000000001</v>
       </c>
-      <c r="AT46" s="24">
+      <c r="AT61" s="24">
         <v>24.652000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B62" s="18">
         <v>448</v>
       </c>
-      <c r="AA47" s="6">
+      <c r="AA62" s="6">
         <v>26.128</v>
       </c>
-      <c r="AB47" s="6">
+      <c r="AB62" s="6">
         <v>26.129000000000001</v>
       </c>
-      <c r="AC47" s="6">
+      <c r="AC62" s="6">
         <v>26.13</v>
       </c>
-      <c r="AD47" s="6">
+      <c r="AD62" s="6">
         <v>26.126999999999999</v>
       </c>
-      <c r="AE47" s="6">
+      <c r="AE62" s="6">
         <v>26.126999999999999</v>
       </c>
-      <c r="AF47" s="6">
+      <c r="AF62" s="6">
         <v>26.132000000000001</v>
       </c>
-      <c r="AG47" s="6">
+      <c r="AG62" s="6">
         <v>26.126999999999999</v>
       </c>
-      <c r="AH47" s="6">
+      <c r="AH62" s="6">
         <v>26.128</v>
       </c>
-      <c r="AI47" s="6">
+      <c r="AI62" s="6">
         <v>26.128</v>
       </c>
-      <c r="AJ47" s="6">
+      <c r="AJ62" s="6">
         <v>26.123999999999999</v>
       </c>
-      <c r="AK47" s="6">
+      <c r="AK62" s="6">
         <v>26.123999999999999</v>
       </c>
-      <c r="AL47" s="6">
+      <c r="AL62" s="6">
         <v>26.126000000000001</v>
       </c>
-      <c r="AM47" s="6">
+      <c r="AM62" s="6">
         <v>26.126000000000001</v>
       </c>
-      <c r="AN47" s="6">
+      <c r="AN62" s="6">
         <v>26.123000000000001</v>
       </c>
-      <c r="AO47" s="6">
+      <c r="AO62" s="6">
         <v>26.129000000000001</v>
       </c>
-      <c r="AP47" s="6">
+      <c r="AP62" s="6">
         <v>26.126000000000001</v>
       </c>
-      <c r="AQ47" s="6">
+      <c r="AQ62" s="6">
         <v>26.123999999999999</v>
       </c>
-      <c r="AR47" s="6">
+      <c r="AR62" s="6">
         <v>26.125</v>
       </c>
-      <c r="AS47" s="6">
+      <c r="AS62" s="6">
         <v>26.125</v>
       </c>
-      <c r="AT47" s="24">
+      <c r="AT62" s="24">
         <v>26.123000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B63" s="18">
         <v>448</v>
       </c>
-      <c r="AA48" s="6">
+      <c r="AA63" s="6">
         <v>26.19</v>
       </c>
-      <c r="AB48" s="6">
+      <c r="AB63" s="6">
         <v>26.187999999999999</v>
       </c>
-      <c r="AC48" s="6">
+      <c r="AC63" s="6">
         <v>26.187999999999999</v>
       </c>
-      <c r="AD48" s="6">
+      <c r="AD63" s="6">
         <v>26.187000000000001</v>
       </c>
-      <c r="AE48" s="6">
+      <c r="AE63" s="6">
         <v>26.186</v>
       </c>
-      <c r="AF48" s="6">
+      <c r="AF63" s="6">
         <v>26.192</v>
       </c>
-      <c r="AG48" s="6">
+      <c r="AG63" s="6">
         <v>26.187999999999999</v>
       </c>
-      <c r="AH48" s="6">
+      <c r="AH63" s="6">
         <v>26.187999999999999</v>
       </c>
-      <c r="AI48" s="6">
+      <c r="AI63" s="6">
         <v>26.187000000000001</v>
       </c>
-      <c r="AJ48" s="6">
+      <c r="AJ63" s="6">
         <v>26.184000000000001</v>
       </c>
-      <c r="AK48" s="6">
+      <c r="AK63" s="6">
         <v>26.184000000000001</v>
       </c>
-      <c r="AL48" s="6">
+      <c r="AL63" s="6">
         <v>26.186</v>
       </c>
-      <c r="AM48" s="6">
+      <c r="AM63" s="6">
         <v>26.187000000000001</v>
       </c>
-      <c r="AN48" s="6">
+      <c r="AN63" s="6">
         <v>26.184999999999999</v>
       </c>
-      <c r="AO48" s="6">
+      <c r="AO63" s="6">
         <v>26.187000000000001</v>
       </c>
-      <c r="AP48" s="6">
+      <c r="AP63" s="6">
         <v>26.186</v>
       </c>
-      <c r="AQ48" s="6">
+      <c r="AQ63" s="6">
         <v>26.184000000000001</v>
       </c>
-      <c r="AR48" s="6">
+      <c r="AR63" s="6">
         <v>26.184999999999999</v>
       </c>
-      <c r="AS48" s="6">
+      <c r="AS63" s="6">
         <v>26.184000000000001</v>
       </c>
-      <c r="AT48" s="24">
+      <c r="AT63" s="24">
         <v>26.183</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B64" s="18">
         <v>450</v>
       </c>
-      <c r="AA49" s="6">
+      <c r="AA64" s="6">
         <v>26.256</v>
       </c>
-      <c r="AB49" s="6">
+      <c r="AB64" s="6">
         <v>26.256</v>
       </c>
-      <c r="AC49" s="6">
+      <c r="AC64" s="6">
         <v>26.256</v>
       </c>
-      <c r="AD49" s="6">
+      <c r="AD64" s="6">
         <v>26.254000000000001</v>
       </c>
-      <c r="AE49" s="6">
+      <c r="AE64" s="6">
         <v>26.254000000000001</v>
       </c>
-      <c r="AF49" s="6">
+      <c r="AF64" s="6">
         <v>26.26</v>
       </c>
-      <c r="AG49" s="6">
+      <c r="AG64" s="6">
         <v>26.254000000000001</v>
       </c>
-      <c r="AH49" s="6">
+      <c r="AH64" s="6">
         <v>26.254999999999999</v>
       </c>
-      <c r="AI49" s="6">
+      <c r="AI64" s="6">
         <v>26.254000000000001</v>
       </c>
-      <c r="AJ49" s="6">
+      <c r="AJ64" s="6">
         <v>26.254000000000001</v>
       </c>
-      <c r="AK49" s="6">
+      <c r="AK64" s="6">
         <v>26.254999999999999</v>
       </c>
-      <c r="AL49" s="6">
+      <c r="AL64" s="6">
         <v>26.253</v>
       </c>
-      <c r="AM49" s="6">
+      <c r="AM64" s="6">
         <v>26.254000000000001</v>
       </c>
-      <c r="AN49" s="6">
+      <c r="AN64" s="6">
         <v>26.251000000000001</v>
       </c>
-      <c r="AO49" s="6">
+      <c r="AO64" s="6">
         <v>26.256</v>
       </c>
-      <c r="AP49" s="6">
+      <c r="AP64" s="6">
         <v>26.254999999999999</v>
       </c>
-      <c r="AQ49" s="6">
+      <c r="AQ64" s="6">
         <v>26.251999999999999</v>
       </c>
-      <c r="AR49" s="6">
+      <c r="AR64" s="6">
         <v>26.251000000000001</v>
       </c>
-      <c r="AS49" s="6">
+      <c r="AS64" s="6">
         <v>26.251000000000001</v>
       </c>
-      <c r="AT49" s="24">
+      <c r="AT64" s="24">
         <v>26.248999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B65" s="18">
         <v>450</v>
       </c>
-      <c r="AA50" s="6">
+      <c r="AA65" s="6">
         <v>26.312999999999999</v>
       </c>
-      <c r="AB50" s="6">
+      <c r="AB65" s="6">
         <v>26.31</v>
       </c>
-      <c r="AC50" s="6">
+      <c r="AC65" s="6">
         <v>26.31</v>
       </c>
-      <c r="AD50" s="6">
+      <c r="AD65" s="6">
         <v>26.309000000000001</v>
       </c>
-      <c r="AE50" s="6">
+      <c r="AE65" s="6">
         <v>26.309000000000001</v>
       </c>
-      <c r="AF50" s="6">
+      <c r="AF65" s="6">
         <v>26.315000000000001</v>
       </c>
-      <c r="AG50" s="6">
+      <c r="AG65" s="6">
         <v>26.311</v>
       </c>
-      <c r="AH50" s="6">
+      <c r="AH65" s="6">
         <v>26.312000000000001</v>
       </c>
-      <c r="AI50" s="6">
+      <c r="AI65" s="6">
         <v>26.31</v>
       </c>
-      <c r="AJ50" s="6">
+      <c r="AJ65" s="6">
         <v>26.308</v>
       </c>
-      <c r="AK50" s="6">
+      <c r="AK65" s="6">
         <v>26.31</v>
       </c>
-      <c r="AL50" s="6">
+      <c r="AL65" s="6">
         <v>26.309000000000001</v>
       </c>
-      <c r="AM50" s="6">
+      <c r="AM65" s="6">
         <v>26.309000000000001</v>
       </c>
-      <c r="AN50" s="6">
+      <c r="AN65" s="6">
         <v>26.308</v>
       </c>
-      <c r="AO50" s="6">
+      <c r="AO65" s="6">
         <v>26.309000000000001</v>
       </c>
-      <c r="AP50" s="6">
+      <c r="AP65" s="6">
         <v>26.309000000000001</v>
       </c>
-      <c r="AQ50" s="6">
+      <c r="AQ65" s="6">
         <v>26.306000000000001</v>
       </c>
-      <c r="AR50" s="6">
+      <c r="AR65" s="6">
         <v>26.306000000000001</v>
       </c>
-      <c r="AS50" s="6">
+      <c r="AS65" s="6">
         <v>26.306999999999999</v>
       </c>
-      <c r="AT50" s="24">
+      <c r="AT65" s="24">
         <v>26.306000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B66" s="18">
         <v>452</v>
       </c>
-      <c r="AA51" s="6">
+      <c r="AA66" s="6">
         <v>26.390999999999998</v>
       </c>
-      <c r="AB51" s="6">
+      <c r="AB66" s="6">
         <v>26.39</v>
       </c>
-      <c r="AC51" s="6">
+      <c r="AC66" s="6">
         <v>26.39</v>
       </c>
-      <c r="AD51" s="6">
+      <c r="AD66" s="6">
         <v>26.388999999999999</v>
       </c>
-      <c r="AE51" s="6">
+      <c r="AE66" s="6">
         <v>26.388999999999999</v>
       </c>
-      <c r="AF51" s="6">
+      <c r="AF66" s="6">
         <v>26.393999999999998</v>
       </c>
-      <c r="AG51" s="6">
+      <c r="AG66" s="6">
         <v>26.390999999999998</v>
       </c>
-      <c r="AH51" s="6">
+      <c r="AH66" s="6">
         <v>26.39</v>
       </c>
-      <c r="AI51" s="6">
+      <c r="AI66" s="6">
         <v>26.39</v>
       </c>
-      <c r="AJ51" s="6">
+      <c r="AJ66" s="6">
         <v>26.388000000000002</v>
       </c>
-      <c r="AK51" s="6">
+      <c r="AK66" s="6">
         <v>26.387</v>
       </c>
-      <c r="AL51" s="6">
+      <c r="AL66" s="6">
         <v>26.39</v>
       </c>
-      <c r="AM51" s="6">
+      <c r="AM66" s="6">
         <v>26.39</v>
       </c>
-      <c r="AN51" s="6">
+      <c r="AN66" s="6">
         <v>26.385999999999999</v>
       </c>
-      <c r="AO51" s="6">
+      <c r="AO66" s="6">
         <v>26.39</v>
       </c>
-      <c r="AP51" s="6">
+      <c r="AP66" s="6">
         <v>26.39</v>
       </c>
-      <c r="AQ51" s="6">
+      <c r="AQ66" s="6">
         <v>26.388000000000002</v>
       </c>
-      <c r="AR51" s="6">
+      <c r="AR66" s="6">
         <v>26.385999999999999</v>
       </c>
-      <c r="AS51" s="6">
+      <c r="AS66" s="6">
         <v>26.385000000000002</v>
       </c>
-      <c r="AT51" s="24">
+      <c r="AT66" s="24">
         <v>26.385000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B67" s="5">
         <v>476</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C67" s="1">
         <v>27.483000000000001</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D67" s="1">
         <v>27.478000000000002</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E67" s="1">
         <v>27.484999999999999</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F67" s="1">
         <v>27.48</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G67" s="1">
         <v>27.478000000000002</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H67" s="1">
         <v>27.477</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I67" s="1">
         <v>27.484999999999999</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J67" s="1">
         <v>27.481000000000002</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K67" s="1">
         <v>27.481000000000002</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L67" s="1">
         <v>27.486999999999998</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M67" s="1">
         <v>27.483000000000001</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N67" s="1">
         <v>27.486999999999998</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O67" s="1">
         <v>27.483000000000001</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P67" s="1">
         <v>27.484000000000002</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q67" s="1">
         <v>27.486999999999998</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R67" s="1">
         <v>27.49</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S67" s="1">
         <v>27.486000000000001</v>
       </c>
-      <c r="T52" s="1">
+      <c r="T67" s="1">
         <v>27.492000000000001</v>
       </c>
-      <c r="U52" s="1">
+      <c r="U67" s="1">
         <v>27.486999999999998</v>
       </c>
-      <c r="V52" s="1">
+      <c r="V67" s="1">
         <v>27.486999999999998</v>
       </c>
-      <c r="W52" s="1">
+      <c r="W67" s="1">
         <v>27.484999999999999</v>
       </c>
-      <c r="X52" s="1">
+      <c r="X67" s="1">
         <v>27.484999999999999</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="Y67" s="1">
         <v>27.486000000000001</v>
       </c>
-      <c r="Z52" s="1">
+      <c r="Z67" s="1">
         <v>27.486999999999998</v>
       </c>
-      <c r="AA52" s="6">
+      <c r="AA67" s="6">
         <v>27.478999999999999</v>
       </c>
-      <c r="AB52" s="6">
+      <c r="AB67" s="6">
         <v>27.478000000000002</v>
       </c>
-      <c r="AC52" s="6">
+      <c r="AC67" s="6">
         <v>27.489000000000001</v>
       </c>
-      <c r="AD52" s="6">
+      <c r="AD67" s="6">
         <v>27.44</v>
       </c>
-      <c r="AE52" s="6">
+      <c r="AE67" s="6">
         <v>27.465</v>
       </c>
-      <c r="AF52" s="6">
+      <c r="AF67" s="6">
         <v>27.446000000000002</v>
       </c>
-      <c r="AG52" s="6">
+      <c r="AG67" s="6">
         <v>27.42</v>
       </c>
-      <c r="AH52" s="6">
+      <c r="AH67" s="6">
         <v>27.442</v>
       </c>
-      <c r="AI52" s="6">
+      <c r="AI67" s="6">
         <v>27.439</v>
       </c>
-      <c r="AJ52" s="6">
+      <c r="AJ67" s="6">
         <v>27.391999999999999</v>
       </c>
-      <c r="AK52" s="6">
+      <c r="AK67" s="6">
         <v>27.395</v>
       </c>
-      <c r="AL52" s="6">
+      <c r="AL67" s="6">
         <v>27.431000000000001</v>
       </c>
-      <c r="AM52" s="6">
+      <c r="AM67" s="6">
         <v>27.440999999999999</v>
       </c>
-      <c r="AN52" s="6">
+      <c r="AN67" s="6">
         <v>27.425000000000001</v>
       </c>
-      <c r="AO52" s="6">
+      <c r="AO67" s="6">
         <v>27.451000000000001</v>
       </c>
-      <c r="AP52" s="6">
+      <c r="AP67" s="6">
         <v>27.434000000000001</v>
       </c>
-      <c r="AQ52" s="6">
+      <c r="AQ67" s="6">
         <v>27.428000000000001</v>
       </c>
-      <c r="AR52" s="6">
+      <c r="AR67" s="6">
         <v>27.484999999999999</v>
       </c>
-      <c r="AS52" s="6">
+      <c r="AS67" s="6">
         <v>27.457000000000001</v>
       </c>
-      <c r="AT52" s="24">
+      <c r="AT67" s="24">
         <v>27.44</v>
       </c>
     </row>
-    <row r="53" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="68" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B68" s="5">
         <v>478</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C68" s="1">
         <v>27.555</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D68" s="1">
         <v>27.550999999999998</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E68" s="1">
         <v>27.558</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F68" s="1">
         <v>27.555</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G68" s="1">
         <v>27.550999999999998</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H68" s="1">
         <v>27.548999999999999</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I68" s="1">
         <v>27.56</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J68" s="1">
         <v>27.553999999999998</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K68" s="1">
         <v>27.556000000000001</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L68" s="1">
         <v>27.556999999999999</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M68" s="1">
         <v>27.555</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N68" s="1">
         <v>27.56</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O68" s="1">
         <v>27.556000000000001</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P68" s="1">
         <v>27.556999999999999</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q68" s="1">
         <v>27.559000000000001</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R68" s="1">
         <v>27.562000000000001</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S68" s="1">
         <v>27.558</v>
       </c>
-      <c r="T53" s="1">
+      <c r="T68" s="1">
         <v>27.565999999999999</v>
       </c>
-      <c r="U53" s="1">
+      <c r="U68" s="1">
         <v>27.56</v>
       </c>
-      <c r="V53" s="1">
+      <c r="V68" s="1">
         <v>27.56</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W68" s="1">
         <v>27.559000000000001</v>
       </c>
-      <c r="X53" s="1">
+      <c r="X68" s="1">
         <v>27.559000000000001</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Y68" s="1">
         <v>27.556999999999999</v>
       </c>
-      <c r="Z53" s="1">
+      <c r="Z68" s="1">
         <v>27.56</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A69" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B69" s="18">
         <v>478</v>
       </c>
-      <c r="AA54" s="6">
+      <c r="AA69" s="6">
         <v>27.574999999999999</v>
       </c>
-      <c r="AB54" s="6">
+      <c r="AB69" s="6">
         <v>27.576000000000001</v>
       </c>
-      <c r="AC54" s="6">
+      <c r="AC69" s="6">
         <v>27.588000000000001</v>
       </c>
-      <c r="AD54" s="6">
+      <c r="AD69" s="6">
         <v>27.55</v>
       </c>
-      <c r="AE54" s="6">
+      <c r="AE69" s="6">
         <v>27.571000000000002</v>
       </c>
-      <c r="AF54" s="6">
+      <c r="AF69" s="6">
         <v>27.555</v>
       </c>
-      <c r="AG54" s="6">
+      <c r="AG69" s="6">
         <v>27.536999999999999</v>
       </c>
-      <c r="AH54" s="6">
+      <c r="AH69" s="6">
         <v>27.565000000000001</v>
       </c>
-      <c r="AI54" s="6">
+      <c r="AI69" s="6">
         <v>27.545000000000002</v>
       </c>
-      <c r="AJ54" s="6">
+      <c r="AJ69" s="6">
         <v>27.513000000000002</v>
       </c>
-      <c r="AK54" s="6">
+      <c r="AK69" s="6">
         <v>27.507999999999999</v>
       </c>
-      <c r="AL54" s="6">
+      <c r="AL69" s="6">
         <v>27.54</v>
       </c>
-      <c r="AM54" s="6">
+      <c r="AM69" s="6">
         <v>27.545999999999999</v>
       </c>
-      <c r="AN54" s="6">
+      <c r="AN69" s="6">
         <v>27.527999999999999</v>
       </c>
-      <c r="AO54" s="6">
+      <c r="AO69" s="6">
         <v>27.548999999999999</v>
       </c>
-      <c r="AP54" s="6">
+      <c r="AP69" s="6">
         <v>27.541</v>
       </c>
-      <c r="AQ54" s="6">
+      <c r="AQ69" s="6">
         <v>27.532</v>
       </c>
-      <c r="AR54" s="6">
+      <c r="AR69" s="6">
         <v>27.565999999999999</v>
       </c>
-      <c r="AS54" s="6">
+      <c r="AS69" s="6">
         <v>27.550999999999998</v>
       </c>
-      <c r="AT54" s="24">
+      <c r="AT69" s="24">
         <v>27.544</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B70" s="5">
         <v>480</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C70" s="1">
         <v>27.620999999999999</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D70" s="1">
         <v>27.617000000000001</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E70" s="1">
         <v>27.62</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F70" s="1">
         <v>27.620999999999999</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G70" s="1">
         <v>27.619</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H70" s="1">
         <v>27.617000000000001</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I70" s="1">
         <v>27.623000000000001</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J70" s="1">
         <v>27.622</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K70" s="1">
         <v>27.620999999999999</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L70" s="1">
         <v>27.622</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M70" s="1">
         <v>27.622</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N70" s="1">
         <v>27.623999999999999</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O70" s="1">
         <v>27.623999999999999</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P70" s="1">
         <v>27.623999999999999</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q70" s="1">
         <v>27.625</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R70" s="1">
         <v>27.626999999999999</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S70" s="1">
         <v>27.623999999999999</v>
       </c>
-      <c r="T55" s="1">
+      <c r="T70" s="1">
         <v>27.629000000000001</v>
       </c>
-      <c r="U55" s="1">
+      <c r="U70" s="1">
         <v>27.626999999999999</v>
       </c>
-      <c r="V55" s="1">
+      <c r="V70" s="1">
         <v>27.628</v>
       </c>
-      <c r="W55" s="1">
+      <c r="W70" s="1">
         <v>27.629000000000001</v>
       </c>
-      <c r="X55" s="1">
+      <c r="X70" s="1">
         <v>27.628</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="Y70" s="1">
         <v>27.628</v>
       </c>
-      <c r="Z55" s="1">
+      <c r="Z70" s="1">
         <v>27.626999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B71" s="18">
         <v>504</v>
       </c>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="6">
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="6">
         <v>28.852</v>
       </c>
-      <c r="AB56" s="6">
+      <c r="AB71" s="6">
         <v>28.852</v>
       </c>
-      <c r="AC56" s="6">
+      <c r="AC71" s="6">
         <v>28.859000000000002</v>
       </c>
-      <c r="AD56" s="6">
+      <c r="AD71" s="6">
         <v>28.846</v>
       </c>
-      <c r="AE56" s="6">
+      <c r="AE71" s="6">
         <v>28.853999999999999</v>
       </c>
-      <c r="AF56" s="6">
+      <c r="AF71" s="6">
         <v>28.850999999999999</v>
       </c>
-      <c r="AG56" s="6">
+      <c r="AG71" s="6">
         <v>28.84</v>
       </c>
-      <c r="AH56" s="6">
+      <c r="AH71" s="6">
         <v>28.841999999999999</v>
       </c>
-      <c r="AI56" s="6">
+      <c r="AI71" s="6">
         <v>28.844999999999999</v>
       </c>
-      <c r="AJ56" s="6">
+      <c r="AJ71" s="6">
         <v>28.832999999999998</v>
       </c>
-      <c r="AK56" s="6">
+      <c r="AK71" s="6">
         <v>28.832999999999998</v>
       </c>
-      <c r="AL56" s="6">
+      <c r="AL71" s="6">
         <v>28.838999999999999</v>
       </c>
-      <c r="AM56" s="6">
+      <c r="AM71" s="6">
         <v>28.843</v>
       </c>
-      <c r="AN56" s="6">
+      <c r="AN71" s="6">
         <v>28.835999999999999</v>
       </c>
-      <c r="AO56" s="6">
+      <c r="AO71" s="6">
         <v>28.846</v>
       </c>
-      <c r="AP56" s="6">
+      <c r="AP71" s="6">
         <v>28.841000000000001</v>
       </c>
-      <c r="AQ56" s="6">
+      <c r="AQ71" s="6">
         <v>28.837</v>
       </c>
-      <c r="AR56" s="6">
+      <c r="AR71" s="6">
         <v>28.846</v>
       </c>
-      <c r="AS56" s="6">
+      <c r="AS71" s="6">
         <v>28.844000000000001</v>
       </c>
-      <c r="AT56" s="24">
+      <c r="AT71" s="24">
         <v>28.841999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B72" s="5">
         <v>504</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C72" s="1">
         <v>28.913</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D72" s="1">
         <v>28.911999999999999</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E72" s="1">
         <v>28.934000000000001</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F72" s="1">
         <v>28.914000000000001</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G72" s="1">
         <v>28.907</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H72" s="1">
         <v>28.895</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I72" s="1">
         <v>28.931999999999999</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J72" s="1">
         <v>28.911999999999999</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K72" s="1">
         <v>28.907</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L72" s="1">
         <v>28.917000000000002</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M72" s="1">
         <v>28.904</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N72" s="1">
         <v>28.914999999999999</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O72" s="1">
         <v>28.907</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P72" s="1">
         <v>28.911999999999999</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q72" s="1">
         <v>28.917999999999999</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R72" s="1">
         <v>28.93</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S72" s="1">
         <v>28.917000000000002</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T72" s="1">
         <v>28.934000000000001</v>
       </c>
-      <c r="U57" s="1">
+      <c r="U72" s="1">
         <v>28.917000000000002</v>
       </c>
-      <c r="V57" s="1">
+      <c r="V72" s="1">
         <v>28.908999999999999</v>
       </c>
-      <c r="W57" s="1">
+      <c r="W72" s="1">
         <v>28.91</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X72" s="1">
         <v>28.908000000000001</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y72" s="1">
         <v>28.902999999999999</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="Z72" s="1">
         <v>28.914999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B73" s="18">
         <v>506</v>
       </c>
-      <c r="AA58" s="6">
+      <c r="AA73" s="6">
         <v>28.989000000000001</v>
       </c>
-      <c r="AB58" s="6">
+      <c r="AB73" s="6">
         <v>28.989000000000001</v>
       </c>
-      <c r="AC58" s="6">
+      <c r="AC73" s="6">
         <v>28.998999999999999</v>
       </c>
-      <c r="AD58" s="6">
+      <c r="AD73" s="6">
         <v>28.984999999999999</v>
       </c>
-      <c r="AE58" s="6">
+      <c r="AE73" s="6">
         <v>28.994</v>
       </c>
-      <c r="AF58" s="6">
+      <c r="AF73" s="6">
         <v>28.991</v>
       </c>
-      <c r="AG58" s="6">
+      <c r="AG73" s="6">
         <v>28.981000000000002</v>
       </c>
-      <c r="AH58" s="6">
+      <c r="AH73" s="6">
         <v>28.984999999999999</v>
       </c>
-      <c r="AI58" s="6">
+      <c r="AI73" s="6">
         <v>28.981000000000002</v>
       </c>
-      <c r="AJ58" s="6">
+      <c r="AJ73" s="6">
         <v>28.971</v>
       </c>
-      <c r="AK58" s="6">
+      <c r="AK73" s="6">
         <v>28.968</v>
       </c>
-      <c r="AL58" s="6">
+      <c r="AL73" s="6">
         <v>28.978000000000002</v>
       </c>
-      <c r="AM58" s="6">
+      <c r="AM73" s="6">
         <v>28.981000000000002</v>
       </c>
-      <c r="AN58" s="6">
+      <c r="AN73" s="6">
         <v>28.974</v>
       </c>
-      <c r="AO58" s="6">
+      <c r="AO73" s="6">
         <v>28.984000000000002</v>
       </c>
-      <c r="AP58" s="6">
+      <c r="AP73" s="6">
         <v>28.98</v>
       </c>
-      <c r="AQ58" s="6">
+      <c r="AQ73" s="6">
         <v>28.975000000000001</v>
       </c>
-      <c r="AR58" s="6">
+      <c r="AR73" s="6">
         <v>28.978000000000002</v>
       </c>
-      <c r="AS58" s="6">
+      <c r="AS73" s="6">
         <v>28.978000000000002</v>
       </c>
-      <c r="AT58" s="24">
+      <c r="AT73" s="24">
         <v>28.977</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B74" s="5">
         <v>506</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C74" s="1">
         <v>28.986000000000001</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D74" s="1">
         <v>28.981000000000002</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E74" s="1">
         <v>29.006</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F74" s="1">
         <v>28.986000000000001</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G74" s="1">
         <v>28.983000000000001</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H74" s="1">
         <v>28.972000000000001</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I74" s="1">
         <v>29.007000000000001</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J74" s="1">
         <v>28.986000000000001</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K74" s="1">
         <v>28.983000000000001</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L74" s="1">
         <v>28.984999999999999</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M74" s="1">
         <v>28.978000000000002</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N74" s="1">
         <v>28.986999999999998</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O74" s="1">
         <v>28.983000000000001</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P74" s="1">
         <v>28.986000000000001</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q74" s="1">
         <v>28.99</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R74" s="1">
         <v>28.998999999999999</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S74" s="1">
         <v>28.984999999999999</v>
       </c>
-      <c r="T59" s="1">
+      <c r="T74" s="1">
         <v>29.001999999999999</v>
       </c>
-      <c r="U59" s="1">
+      <c r="U74" s="1">
         <v>28.986999999999998</v>
       </c>
-      <c r="V59" s="1">
+      <c r="V74" s="1">
         <v>28.983000000000001</v>
       </c>
-      <c r="W59" s="1">
+      <c r="W74" s="1">
         <v>28.99</v>
       </c>
-      <c r="X59" s="1">
+      <c r="X74" s="1">
         <v>28.986000000000001</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Y74" s="1">
         <v>28.986000000000001</v>
       </c>
-      <c r="Z59" s="1">
+      <c r="Z74" s="1">
         <v>28.992000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B75" s="5">
         <v>532</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C75" s="1">
         <v>30.747</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D75" s="1">
         <v>30.739000000000001</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E75" s="1">
         <v>30.77</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F75" s="1">
         <v>30.75</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G75" s="1">
         <v>30.748999999999999</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H75" s="1">
         <v>30.728999999999999</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I75" s="1">
         <v>30.765000000000001</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J75" s="1">
         <v>30.754000000000001</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K75" s="1">
         <v>30.736000000000001</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L75" s="1">
         <v>30.734999999999999</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M75" s="1">
         <v>30.724</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N75" s="1">
         <v>30.734000000000002</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O75" s="1">
         <v>30.734000000000002</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P75" s="1">
         <v>30.742999999999999</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q75" s="1">
         <v>30.75</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R75" s="1">
         <v>30.768000000000001</v>
       </c>
-      <c r="S60" s="1">
+      <c r="S75" s="1">
         <v>30.748999999999999</v>
       </c>
-      <c r="T60" s="1">
+      <c r="T75" s="1">
         <v>30.754999999999999</v>
       </c>
-      <c r="U60" s="1">
+      <c r="U75" s="1">
         <v>30.741</v>
       </c>
-      <c r="V60" s="1">
+      <c r="V75" s="1">
         <v>30.734999999999999</v>
       </c>
-      <c r="W60" s="1">
+      <c r="W75" s="1">
         <v>30.757999999999999</v>
       </c>
-      <c r="X60" s="1">
+      <c r="X75" s="1">
         <v>30.736000000000001</v>
       </c>
-      <c r="Y60" s="1">
+      <c r="Y75" s="1">
         <v>30.739000000000001</v>
       </c>
-      <c r="Z60" s="1">
+      <c r="Z75" s="1">
         <v>30.748999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="24"/>
-    </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="24"/>
-    </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="24"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="24"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="24"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="24"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="24"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="24"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="24"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="24"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="24"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="24"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="24"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="24"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="24"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="9">
+        <v>350</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17">
+        <v>21.55</v>
+      </c>
+      <c r="H77" s="17">
+        <v>21.55</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17">
+        <v>21.547999999999998</v>
+      </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
@@ -6622,20 +7472,46 @@
       <c r="U77" s="6"/>
       <c r="V77" s="24"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="5">
+        <v>350</v>
+      </c>
+      <c r="C78" s="17">
+        <v>21.61</v>
+      </c>
+      <c r="D78" s="17">
+        <v>21.58</v>
+      </c>
+      <c r="E78" s="17">
+        <v>21.603000000000002</v>
+      </c>
+      <c r="F78" s="17">
+        <v>21.61</v>
+      </c>
+      <c r="G78" s="17">
+        <v>21.591000000000001</v>
+      </c>
+      <c r="H78" s="17">
+        <v>21.591999999999999</v>
+      </c>
+      <c r="I78" s="17">
+        <v>21.584</v>
+      </c>
+      <c r="J78" s="17">
+        <v>21.587</v>
+      </c>
+      <c r="K78" s="17">
+        <v>21.58</v>
+      </c>
+      <c r="L78" s="17">
+        <v>21.591000000000001</v>
+      </c>
+      <c r="M78" s="17">
+        <v>21.587</v>
+      </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
@@ -6646,20 +7522,9 @@
       <c r="U78" s="6"/>
       <c r="V78" s="24"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="5"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -6670,20 +7535,13 @@
       <c r="U79" s="6"/>
       <c r="V79" s="24"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="5">
+        <v>378</v>
+      </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -6695,19 +7553,45 @@
       <c r="V80" s="24"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
+      <c r="A81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="5">
+        <v>378</v>
+      </c>
+      <c r="C81" s="17">
+        <v>23.114999999999998</v>
+      </c>
+      <c r="D81" s="17">
+        <v>23.106000000000002</v>
+      </c>
+      <c r="E81" s="17">
+        <v>23.113</v>
+      </c>
+      <c r="F81" s="17">
+        <v>23.114999999999998</v>
+      </c>
+      <c r="G81" s="17">
+        <v>23.11</v>
+      </c>
+      <c r="H81" s="17">
+        <v>23.108000000000001</v>
+      </c>
+      <c r="I81" s="17">
+        <v>23.106000000000002</v>
+      </c>
+      <c r="J81" s="17">
+        <v>23.103000000000002</v>
+      </c>
+      <c r="K81" s="17">
+        <v>23.103999999999999</v>
+      </c>
+      <c r="L81" s="17">
+        <v>23.109000000000002</v>
+      </c>
+      <c r="M81" s="17">
+        <v>23.109000000000002</v>
+      </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
@@ -6718,221 +7602,726 @@
       <c r="U81" s="6"/>
       <c r="V81" s="24"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="24"/>
+    <row r="82" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17">
+        <v>23.155999999999999</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17">
+        <v>23.155999999999999</v>
+      </c>
+      <c r="J82" s="17">
+        <v>23.152999999999999</v>
+      </c>
+      <c r="K82" s="17">
+        <v>23.157</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="28"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="24"/>
+      <c r="A83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="5">
+        <v>380</v>
+      </c>
+      <c r="C83" s="17">
+        <v>23.292000000000002</v>
+      </c>
+      <c r="D83" s="17">
+        <v>23.276</v>
+      </c>
+      <c r="E83" s="17">
+        <v>23.291</v>
+      </c>
+      <c r="F83" s="17">
+        <v>23.292000000000002</v>
+      </c>
+      <c r="G83" s="17">
+        <v>23.285</v>
+      </c>
+      <c r="H83" s="17">
+        <v>23.286000000000001</v>
+      </c>
+      <c r="I83" s="17">
+        <v>23.283000000000001</v>
+      </c>
+      <c r="J83" s="17">
+        <v>23.277999999999999</v>
+      </c>
+      <c r="K83" s="17">
+        <v>23.277000000000001</v>
+      </c>
+      <c r="L83" s="17">
+        <v>23.289000000000001</v>
+      </c>
+      <c r="M83" s="17">
+        <v>23.291</v>
+      </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="24"/>
+      <c r="A84" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="5">
+        <v>396</v>
+      </c>
+      <c r="C84" s="17">
+        <v>23.827000000000002</v>
+      </c>
+      <c r="D84" s="17">
+        <v>23.792000000000002</v>
+      </c>
+      <c r="E84" s="17">
+        <v>23.812999999999999</v>
+      </c>
+      <c r="F84" s="17">
+        <v>23.827000000000002</v>
+      </c>
+      <c r="G84" s="17">
+        <v>23.814</v>
+      </c>
+      <c r="H84" s="17">
+        <v>23.818999999999999</v>
+      </c>
+      <c r="I84" s="17">
+        <v>23.811</v>
+      </c>
+      <c r="J84" s="17">
+        <v>23.806000000000001</v>
+      </c>
+      <c r="K84" s="17">
+        <v>23.8</v>
+      </c>
+      <c r="L84" s="17">
+        <v>23.811</v>
+      </c>
+      <c r="M84" s="17">
+        <v>23.812000000000001</v>
+      </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="24"/>
+      <c r="A85" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="5">
+        <v>406</v>
+      </c>
+      <c r="C85" s="17">
+        <v>24.463999999999999</v>
+      </c>
+      <c r="D85" s="17">
+        <v>24.462</v>
+      </c>
+      <c r="E85" s="17">
+        <v>24.465</v>
+      </c>
+      <c r="F85" s="17">
+        <v>24.463999999999999</v>
+      </c>
+      <c r="G85" s="17">
+        <v>24.463999999999999</v>
+      </c>
+      <c r="H85" s="17">
+        <v>24.463000000000001</v>
+      </c>
+      <c r="I85" s="17">
+        <v>24.463000000000001</v>
+      </c>
+      <c r="J85" s="17">
+        <v>24.459</v>
+      </c>
+      <c r="K85" s="17">
+        <v>24.460999999999999</v>
+      </c>
+      <c r="L85" s="17">
+        <v>24.463000000000001</v>
+      </c>
+      <c r="M85" s="17">
+        <v>24.463999999999999</v>
+      </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="24"/>
+      <c r="A86" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="5">
+        <v>406</v>
+      </c>
+      <c r="C86" s="17">
+        <v>24.530999999999999</v>
+      </c>
+      <c r="D86" s="17">
+        <v>24.527000000000001</v>
+      </c>
+      <c r="E86" s="17">
+        <v>24.532</v>
+      </c>
+      <c r="F86" s="17">
+        <v>24.530999999999999</v>
+      </c>
+      <c r="G86" s="17">
+        <v>24.53</v>
+      </c>
+      <c r="H86" s="17">
+        <v>24.529</v>
+      </c>
+      <c r="I86" s="17">
+        <v>24.527000000000001</v>
+      </c>
+      <c r="J86" s="17">
+        <v>24.524000000000001</v>
+      </c>
+      <c r="K86" s="17">
+        <v>24.524999999999999</v>
+      </c>
+      <c r="L86" s="17">
+        <v>24.53</v>
+      </c>
+      <c r="M86" s="17">
+        <v>24.53</v>
+      </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="24"/>
+      <c r="A87" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="5">
+        <v>408</v>
+      </c>
+      <c r="C87" s="17">
+        <v>24.681000000000001</v>
+      </c>
+      <c r="D87" s="17">
+        <v>24.67</v>
+      </c>
+      <c r="E87" s="17">
+        <v>24.678000000000001</v>
+      </c>
+      <c r="F87" s="17">
+        <v>24.681000000000001</v>
+      </c>
+      <c r="G87" s="17">
+        <v>24.673999999999999</v>
+      </c>
+      <c r="H87" s="17">
+        <v>24.675999999999998</v>
+      </c>
+      <c r="I87" s="17">
+        <v>24.673999999999999</v>
+      </c>
+      <c r="J87" s="17">
+        <v>24.672999999999998</v>
+      </c>
+      <c r="K87" s="17">
+        <v>24.672000000000001</v>
+      </c>
+      <c r="L87" s="17">
+        <v>24.675999999999998</v>
+      </c>
+      <c r="M87" s="17">
+        <v>24.677</v>
+      </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="24"/>
+      <c r="A88" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="5">
+        <v>422</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17">
+        <v>25.082000000000001</v>
+      </c>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17">
+        <v>25.062999999999999</v>
+      </c>
+      <c r="G88" s="17">
+        <v>25.056999999999999</v>
+      </c>
+      <c r="H88" s="17">
+        <v>25.06</v>
+      </c>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17">
+        <v>25.056999999999999</v>
+      </c>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="24"/>
-    </row>
-    <row r="90" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="27"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="30"/>
+      <c r="A89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" s="5">
+        <v>424</v>
+      </c>
+      <c r="C89" s="17">
+        <v>25.161000000000001</v>
+      </c>
+      <c r="D89" s="17">
+        <v>25.140999999999998</v>
+      </c>
+      <c r="E89" s="17">
+        <v>25.157</v>
+      </c>
+      <c r="F89" s="17">
+        <v>25.161000000000001</v>
+      </c>
+      <c r="G89" s="17">
+        <v>25.155999999999999</v>
+      </c>
+      <c r="H89" s="17">
+        <v>25.152000000000001</v>
+      </c>
+      <c r="I89" s="17">
+        <v>25.154</v>
+      </c>
+      <c r="J89" s="17">
+        <v>25.146999999999998</v>
+      </c>
+      <c r="K89" s="17">
+        <v>25.143999999999998</v>
+      </c>
+      <c r="L89" s="17">
+        <v>25.151</v>
+      </c>
+      <c r="M89" s="17">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="5">
+        <v>446</v>
+      </c>
+      <c r="C90" s="17">
+        <v>25.437000000000001</v>
+      </c>
+      <c r="D90" s="17">
+        <v>25.431999999999999</v>
+      </c>
+      <c r="E90" s="17">
+        <v>25.434999999999999</v>
+      </c>
+      <c r="F90" s="17">
+        <v>25.437000000000001</v>
+      </c>
+      <c r="G90" s="17">
+        <v>25.434999999999999</v>
+      </c>
+      <c r="H90" s="17">
+        <v>25.434999999999999</v>
+      </c>
+      <c r="I90" s="17">
+        <v>25.436</v>
+      </c>
+      <c r="J90" s="17">
+        <v>25.434000000000001</v>
+      </c>
+      <c r="K90" s="17">
+        <v>25.433</v>
+      </c>
+      <c r="L90" s="17">
+        <v>25.434000000000001</v>
+      </c>
+      <c r="M90" s="17">
+        <v>25.436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" s="5">
+        <v>432</v>
+      </c>
+      <c r="C91" s="17">
+        <v>25.673999999999999</v>
+      </c>
+      <c r="D91" s="17">
+        <v>25.67</v>
+      </c>
+      <c r="E91" s="17">
+        <v>25.672000000000001</v>
+      </c>
+      <c r="F91" s="17">
+        <v>25.673999999999999</v>
+      </c>
+      <c r="G91" s="17">
+        <v>25.672000000000001</v>
+      </c>
+      <c r="H91" s="17">
+        <v>25.672000000000001</v>
+      </c>
+      <c r="I91" s="17">
+        <v>25.672999999999998</v>
+      </c>
+      <c r="J91" s="17">
+        <v>25.670999999999999</v>
+      </c>
+      <c r="K91" s="17">
+        <v>25.670999999999999</v>
+      </c>
+      <c r="L91" s="17">
+        <v>25.670999999999999</v>
+      </c>
+      <c r="M91" s="17">
+        <v>25.673999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="5">
+        <v>452</v>
+      </c>
+      <c r="C92" s="17">
+        <v>25.852</v>
+      </c>
+      <c r="D92" s="17">
+        <v>25.849</v>
+      </c>
+      <c r="E92" s="17">
+        <v>25.852</v>
+      </c>
+      <c r="F92" s="17">
+        <v>25.852</v>
+      </c>
+      <c r="G92" s="17">
+        <v>25.849</v>
+      </c>
+      <c r="H92" s="17">
+        <v>25.849</v>
+      </c>
+      <c r="I92" s="17">
+        <v>25.850999999999999</v>
+      </c>
+      <c r="J92" s="17">
+        <v>25.849</v>
+      </c>
+      <c r="K92" s="17">
+        <v>25.849</v>
+      </c>
+      <c r="L92" s="17">
+        <v>25.850999999999999</v>
+      </c>
+      <c r="M92" s="17">
+        <v>25.850999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="5">
+        <v>474</v>
+      </c>
+      <c r="C93" s="17">
+        <v>26.402000000000001</v>
+      </c>
+      <c r="D93" s="17">
+        <v>26.398</v>
+      </c>
+      <c r="E93" s="17">
+        <v>26.401</v>
+      </c>
+      <c r="F93" s="17">
+        <v>26.402000000000001</v>
+      </c>
+      <c r="G93" s="17">
+        <v>26.402000000000001</v>
+      </c>
+      <c r="H93" s="17">
+        <v>26.401</v>
+      </c>
+      <c r="I93" s="17">
+        <v>26.402999999999999</v>
+      </c>
+      <c r="J93" s="17">
+        <v>26.4</v>
+      </c>
+      <c r="K93" s="17">
+        <v>26.4</v>
+      </c>
+      <c r="L93" s="17">
+        <v>26.401</v>
+      </c>
+      <c r="M93" s="17">
+        <v>26.402000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" s="5">
+        <v>478</v>
+      </c>
+      <c r="C94" s="17">
+        <v>27.574000000000002</v>
+      </c>
+      <c r="D94" s="17">
+        <v>27.565000000000001</v>
+      </c>
+      <c r="E94" s="17">
+        <v>27.567</v>
+      </c>
+      <c r="F94" s="17">
+        <v>27.574000000000002</v>
+      </c>
+      <c r="G94" s="17">
+        <v>27.568000000000001</v>
+      </c>
+      <c r="H94" s="17">
+        <v>27.567</v>
+      </c>
+      <c r="I94" s="17">
+        <v>27.573</v>
+      </c>
+      <c r="J94" s="17">
+        <v>27.565000000000001</v>
+      </c>
+      <c r="K94" s="17">
+        <v>27.567</v>
+      </c>
+      <c r="L94" s="17">
+        <v>27.573</v>
+      </c>
+      <c r="M94" s="17">
+        <v>27.574000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="5">
+        <v>480</v>
+      </c>
+      <c r="C95" s="17">
+        <v>27.651</v>
+      </c>
+      <c r="D95" s="17">
+        <v>27.638999999999999</v>
+      </c>
+      <c r="E95" s="17">
+        <v>27.643999999999998</v>
+      </c>
+      <c r="F95" s="17">
+        <v>27.651</v>
+      </c>
+      <c r="G95" s="17">
+        <v>27.646999999999998</v>
+      </c>
+      <c r="H95" s="17">
+        <v>27.65</v>
+      </c>
+      <c r="I95" s="17">
+        <v>27.649000000000001</v>
+      </c>
+      <c r="J95" s="17">
+        <v>27.646000000000001</v>
+      </c>
+      <c r="K95" s="17">
+        <v>27.643000000000001</v>
+      </c>
+      <c r="L95" s="17">
+        <v>27.65</v>
+      </c>
+      <c r="M95" s="17">
+        <v>27.643999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="5">
+        <v>506</v>
+      </c>
+      <c r="C96" s="17">
+        <v>28.991</v>
+      </c>
+      <c r="D96" s="17">
+        <v>28.98</v>
+      </c>
+      <c r="E96" s="17">
+        <v>28.988</v>
+      </c>
+      <c r="F96" s="17">
+        <v>28.991</v>
+      </c>
+      <c r="G96" s="17">
+        <v>28.988</v>
+      </c>
+      <c r="H96" s="17">
+        <v>28.992000000000001</v>
+      </c>
+      <c r="I96" s="17">
+        <v>28.989000000000001</v>
+      </c>
+      <c r="J96" s="17">
+        <v>28.99</v>
+      </c>
+      <c r="K96" s="17">
+        <v>28.984999999999999</v>
+      </c>
+      <c r="L96" s="17">
+        <v>28.99</v>
+      </c>
+      <c r="M96" s="17">
+        <v>28.992000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="5">
+        <v>502</v>
+      </c>
+      <c r="C97" s="17">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="D97" s="17">
+        <v>29.097999999999999</v>
+      </c>
+      <c r="E97" s="17">
+        <v>29.1</v>
+      </c>
+      <c r="F97" s="17">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="G97" s="17">
+        <v>29.099</v>
+      </c>
+      <c r="H97" s="17">
+        <v>29.105</v>
+      </c>
+      <c r="I97" s="17">
+        <v>29.103000000000002</v>
+      </c>
+      <c r="J97" s="17">
+        <v>29.102</v>
+      </c>
+      <c r="K97" s="17">
+        <v>29.097999999999999</v>
+      </c>
+      <c r="L97" s="17">
+        <v>29.1</v>
+      </c>
+      <c r="M97" s="17">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="5">
+        <v>528</v>
+      </c>
+      <c r="C98" s="17">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="D98" s="17">
+        <v>29.452999999999999</v>
+      </c>
+      <c r="E98" s="17">
+        <v>29.459</v>
+      </c>
+      <c r="F98" s="17">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="G98" s="17">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="H98" s="17">
+        <v>29.460999999999999</v>
+      </c>
+      <c r="I98" s="17">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="J98" s="17">
+        <v>29.454999999999998</v>
+      </c>
+      <c r="K98" s="17">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="L98" s="17">
+        <v>29.457000000000001</v>
+      </c>
+      <c r="M98" s="17">
+        <v>29.460999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="5">
+        <v>530</v>
+      </c>
+      <c r="C99" s="17">
+        <v>29.552</v>
+      </c>
+      <c r="D99" s="17">
+        <v>29.545999999999999</v>
+      </c>
+      <c r="E99" s="17">
+        <v>29.553000000000001</v>
+      </c>
+      <c r="F99" s="17">
+        <v>29.552</v>
+      </c>
+      <c r="G99" s="17">
+        <v>29.552</v>
+      </c>
+      <c r="H99" s="17">
+        <v>29.553999999999998</v>
+      </c>
+      <c r="I99" s="17">
+        <v>29.552</v>
+      </c>
+      <c r="J99" s="17">
+        <v>29.553000000000001</v>
+      </c>
+      <c r="K99" s="17">
+        <v>29.548999999999999</v>
+      </c>
+      <c r="L99" s="17">
+        <v>29.55</v>
+      </c>
+      <c r="M99" s="17">
+        <v>29.553999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6943,8 +8332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9529,7 +10918,7 @@
   <dimension ref="A2:V45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12358,8 +13747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
